--- a/results/Levofloxacin_ATU.xlsx
+++ b/results/Levofloxacin_ATU.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="92">
   <si>
     <t>mutation</t>
   </si>
@@ -783,10 +783,10 @@
         <v>3.637405895433081</v>
       </c>
       <c r="F2">
-        <v>3.487493872635925</v>
+        <v>3.483007928915756</v>
       </c>
       <c r="G2">
-        <v>3.823734597567624</v>
+        <v>3.82571814260071</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -893,10 +893,10 @@
         <v>2.85377662105881</v>
       </c>
       <c r="F3">
-        <v>2.737157671575275</v>
+        <v>2.740894168245693</v>
       </c>
       <c r="G3">
-        <v>2.984894213658865</v>
+        <v>2.989129797858889</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         <v>2.731324703491576</v>
       </c>
       <c r="F4">
-        <v>2.624470886176226</v>
+        <v>2.621204506278862</v>
       </c>
       <c r="G4">
-        <v>2.864789263020137</v>
+        <v>2.855003861476551</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1113,19 +1113,19 @@
         <v>2.260118403095446</v>
       </c>
       <c r="F5">
-        <v>2.172672192528811</v>
+        <v>2.1691272898142</v>
       </c>
       <c r="G5">
-        <v>2.357491368026489</v>
+        <v>2.365760931589701</v>
       </c>
       <c r="H5">
-        <v>8.416204358350212E-301</v>
+        <v>4.546975752072081E-268</v>
       </c>
       <c r="I5">
-        <v>1.918894593703848E-298</v>
+        <v>1.036710471472434E-265</v>
       </c>
       <c r="J5">
-        <v>3.837789187407696E-298</v>
+        <v>2.073420942944869E-265</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1223,19 +1223,19 @@
         <v>1.8282204055409</v>
       </c>
       <c r="F6">
-        <v>1.765954470554822</v>
+        <v>1.76530542514066</v>
       </c>
       <c r="G6">
-        <v>1.910819726051772</v>
+        <v>1.918588197657797</v>
       </c>
       <c r="H6">
-        <v>8.663525065937007E-184</v>
+        <v>1.839080677188164E-175</v>
       </c>
       <c r="I6">
-        <v>1.975283715033638E-181</v>
+        <v>4.193103943989015E-173</v>
       </c>
       <c r="J6">
-        <v>3.950567430067276E-181</v>
+        <v>8.386207887978031E-173</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1333,19 +1333,19 @@
         <v>1.65375932109769</v>
       </c>
       <c r="F7">
-        <v>1.595961453312171</v>
+        <v>1.590271475635032</v>
       </c>
       <c r="G7">
-        <v>1.728848768082312</v>
+        <v>1.73018560087783</v>
       </c>
       <c r="H7">
-        <v>6.61785041528804E-123</v>
+        <v>3.489397361111186E-119</v>
       </c>
       <c r="I7">
-        <v>1.005913263123782E-120</v>
+        <v>5.303883988889003E-117</v>
       </c>
       <c r="J7">
-        <v>3.017739789371346E-120</v>
+        <v>1.591165196666701E-116</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1443,19 +1443,19 @@
         <v>1.634545914497247</v>
       </c>
       <c r="F8">
-        <v>1.569384206451026</v>
+        <v>1.569293901464561</v>
       </c>
       <c r="G8">
-        <v>1.703798498839464</v>
+        <v>1.708958070873236</v>
       </c>
       <c r="H8">
-        <v>8.165370501833648E-115</v>
+        <v>3.53428504748104E-111</v>
       </c>
       <c r="I8">
-        <v>1.241136316278715E-112</v>
+        <v>5.372113272171178E-109</v>
       </c>
       <c r="J8">
-        <v>3.723408948836144E-112</v>
+        <v>1.611633981651354E-108</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1553,19 +1553,19 @@
         <v>1.55987049302536</v>
       </c>
       <c r="F9">
-        <v>1.495533238235369</v>
+        <v>1.505535786819137</v>
       </c>
       <c r="G9">
-        <v>1.621056897689705</v>
+        <v>1.620950892893942</v>
       </c>
       <c r="H9">
-        <v>2.861925133601965E-112</v>
+        <v>6.248806316448375E-119</v>
       </c>
       <c r="I9">
-        <v>3.26259465230624E-110</v>
+        <v>7.123639200751145E-117</v>
       </c>
       <c r="J9">
-        <v>1.305037860922496E-109</v>
+        <v>2.849455680300458E-116</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1663,19 +1663,19 @@
         <v>1.54285974572953</v>
       </c>
       <c r="F10">
-        <v>1.495651470659134</v>
+        <v>1.491457516188971</v>
       </c>
       <c r="G10">
-        <v>1.61382011106386</v>
+        <v>1.609797391069068</v>
       </c>
       <c r="H10">
-        <v>1.140835503562244E-106</v>
+        <v>5.917168442042233E-101</v>
       </c>
       <c r="I10">
-        <v>8.670349827073055E-105</v>
+        <v>4.497048015952097E-99</v>
       </c>
       <c r="J10">
-        <v>5.202209896243832E-104</v>
+        <v>2.698228809571258E-98</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1773,19 +1773,19 @@
         <v>1.512417050693439</v>
       </c>
       <c r="F11">
-        <v>1.462717592848501</v>
+        <v>1.450913612878825</v>
       </c>
       <c r="G11">
-        <v>1.585514362669483</v>
+        <v>1.582619567646466</v>
       </c>
       <c r="H11">
-        <v>6.056969902597232E-81</v>
+        <v>1.140632239338989E-74</v>
       </c>
       <c r="I11">
-        <v>6.904945688960845E-79</v>
+        <v>1.040256602277158E-72</v>
       </c>
       <c r="J11">
-        <v>2.761978275584338E-78</v>
+        <v>5.20128301138579E-72</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1883,19 +1883,19 @@
         <v>1.444488890960278</v>
       </c>
       <c r="F12">
-        <v>1.389221343405079</v>
+        <v>1.388408416725636</v>
       </c>
       <c r="G12">
-        <v>1.505415159216896</v>
+        <v>1.502381969482495</v>
       </c>
       <c r="H12">
-        <v>1.022192025773122E-72</v>
+        <v>8.703439876208257E-76</v>
       </c>
       <c r="I12">
-        <v>7.768659395875724E-71</v>
+        <v>9.921921458877412E-74</v>
       </c>
       <c r="J12">
-        <v>4.661195637525434E-70</v>
+        <v>3.968768583550965E-73</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1993,19 +1993,19 @@
         <v>1.425153802431691</v>
       </c>
       <c r="F13">
-        <v>1.376271484298985</v>
+        <v>1.376142223683427</v>
       </c>
       <c r="G13">
-        <v>1.492137322417946</v>
+        <v>1.489977471499088</v>
       </c>
       <c r="H13">
-        <v>2.680552532136637E-63</v>
+        <v>5.64272204610187E-64</v>
       </c>
       <c r="I13">
-        <v>1.746188506649009E-61</v>
+        <v>3.675830361460647E-62</v>
       </c>
       <c r="J13">
-        <v>1.222331954654306E-60</v>
+        <v>2.573081253022453E-61</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -2103,19 +2103,19 @@
         <v>1.383286864946881</v>
       </c>
       <c r="F14">
-        <v>1.338388202072002</v>
+        <v>1.339293994613276</v>
       </c>
       <c r="G14">
-        <v>1.442530447405975</v>
+        <v>1.442312637504256</v>
       </c>
       <c r="H14">
-        <v>1.82836171637798E-62</v>
+        <v>7.860953708554159E-67</v>
       </c>
       <c r="I14">
-        <v>1.191047060954798E-60</v>
+        <v>5.120849844429566E-65</v>
       </c>
       <c r="J14">
-        <v>8.337329426683589E-60</v>
+        <v>3.584594891100696E-64</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -2213,19 +2213,19 @@
         <v>1.300902217261472</v>
       </c>
       <c r="F15">
-        <v>1.256245822913881</v>
+        <v>1.261639699780442</v>
       </c>
       <c r="G15">
-        <v>1.36369550619694</v>
+        <v>1.360955743137214</v>
       </c>
       <c r="H15">
-        <v>1.114275206985253E-35</v>
+        <v>9.343081137665652E-38</v>
       </c>
       <c r="I15">
-        <v>6.351368679815942E-34</v>
+        <v>5.325556248469422E-36</v>
       </c>
       <c r="J15">
-        <v>5.081094943852754E-33</v>
+        <v>4.260444998775537E-35</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -2323,19 +2323,19 @@
         <v>1.257358348598205</v>
       </c>
       <c r="F16">
-        <v>1.220758159734057</v>
+        <v>1.219608436545306</v>
       </c>
       <c r="G16">
-        <v>1.296968670716563</v>
+        <v>1.296203342485299</v>
       </c>
       <c r="H16">
-        <v>6.463407136243776E-43</v>
+        <v>2.227508292109072E-44</v>
       </c>
       <c r="I16">
-        <v>3.68414206765895E-41</v>
+        <v>1.269679726502171E-42</v>
       </c>
       <c r="J16">
-        <v>2.94731365412716E-40</v>
+        <v>1.015743781201736E-41</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -2433,19 +2433,19 @@
         <v>1.250162920363987</v>
       </c>
       <c r="F17">
-        <v>1.209420981688756</v>
+        <v>1.205997593630999</v>
       </c>
       <c r="G17">
-        <v>1.293596230409137</v>
+        <v>1.293617403865267</v>
       </c>
       <c r="H17">
-        <v>3.172603983813499E-34</v>
+        <v>3.882766815033724E-32</v>
       </c>
       <c r="I17">
-        <v>1.607452685132173E-32</v>
+        <v>1.967268519617087E-30</v>
       </c>
       <c r="J17">
-        <v>1.446707416618955E-31</v>
+        <v>1.770541667655379E-29</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -2543,19 +2543,19 @@
         <v>1.205348406269189</v>
       </c>
       <c r="F18">
-        <v>1.16227104633051</v>
+        <v>1.160594513017739</v>
       </c>
       <c r="G18">
-        <v>1.246270303219367</v>
+        <v>1.248110221891356</v>
       </c>
       <c r="H18">
-        <v>2.813317691625374E-22</v>
+        <v>2.582870198987222E-21</v>
       </c>
       <c r="I18">
-        <v>1.282872867381171E-20</v>
+        <v>1.177788810738173E-19</v>
       </c>
       <c r="J18">
-        <v>1.282872867381171E-19</v>
+        <v>1.177788810738173E-18</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -2653,19 +2653,19 @@
         <v>1.193002303366686</v>
       </c>
       <c r="F19">
-        <v>1.145398211076766</v>
+        <v>1.146189336353999</v>
       </c>
       <c r="G19">
-        <v>1.237774210025226</v>
+        <v>1.237998797619302</v>
       </c>
       <c r="H19">
-        <v>1.301374262413932E-17</v>
+        <v>2.963888036115821E-18</v>
       </c>
       <c r="I19">
-        <v>4.564820489698099E-16</v>
+        <v>1.126277453724012E-16</v>
       </c>
       <c r="J19">
-        <v>5.934266636607528E-15</v>
+        <v>1.351532944468814E-15</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -2763,19 +2763,19 @@
         <v>1.135282898967222</v>
       </c>
       <c r="F20">
-        <v>1.079618052228434</v>
+        <v>1.077357224792657</v>
       </c>
       <c r="G20">
-        <v>1.182308246293004</v>
+        <v>1.180713523299025</v>
       </c>
       <c r="H20">
-        <v>3.439382138366323E-09</v>
+        <v>2.011907152842429E-08</v>
       </c>
       <c r="I20">
-        <v>9.225636794676725E-08</v>
+        <v>5.096831453867486E-07</v>
       </c>
       <c r="J20">
-        <v>1.568358255095043E-06</v>
+        <v>9.174296616961476E-06</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -2873,19 +2873,19 @@
         <v>1.13213331814549</v>
       </c>
       <c r="F21">
-        <v>1.091579651033359</v>
+        <v>1.085737880311791</v>
       </c>
       <c r="G21">
-        <v>1.186884989104554</v>
+        <v>1.181105549165525</v>
       </c>
       <c r="H21">
-        <v>5.758572251991773E-09</v>
+        <v>9.415028136984632E-09</v>
       </c>
       <c r="I21">
-        <v>1.193594975867386E-07</v>
+        <v>1.951478559302269E-07</v>
       </c>
       <c r="J21">
-        <v>2.625908946908249E-06</v>
+        <v>4.293252830464991E-06</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -2983,19 +2983,19 @@
         <v>1.130918058719063</v>
       </c>
       <c r="F22">
-        <v>1.087176555897936</v>
+        <v>1.088586785421089</v>
       </c>
       <c r="G22">
-        <v>1.179229401041973</v>
+        <v>1.179909341281272</v>
       </c>
       <c r="H22">
-        <v>1.104093639851914E-09</v>
+        <v>2.608313063315513E-10</v>
       </c>
       <c r="I22">
-        <v>3.35644466514982E-08</v>
+        <v>8.495648263370528E-09</v>
       </c>
       <c r="J22">
-        <v>5.034666997724728E-07</v>
+        <v>1.189390756871874E-07</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -3093,19 +3093,19 @@
         <v>1.127166554991646</v>
       </c>
       <c r="F23">
-        <v>1.082452565508187</v>
+        <v>1.085037694695294</v>
       </c>
       <c r="G23">
-        <v>1.168318952651048</v>
+        <v>1.167777539353684</v>
       </c>
       <c r="H23">
-        <v>2.016682906201342E-09</v>
+        <v>2.65580086336375E-09</v>
       </c>
       <c r="I23">
-        <v>5.747546282673825E-08</v>
+        <v>7.56903246058669E-08</v>
       </c>
       <c r="J23">
-        <v>9.19607405227812E-07</v>
+        <v>1.21104519369387E-06</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -3203,19 +3203,19 @@
         <v>1.113503399178037</v>
       </c>
       <c r="F24">
-        <v>1.053409772582766</v>
+        <v>1.076840620742771</v>
       </c>
       <c r="G24">
-        <v>1.132530695822099</v>
+        <v>1.133604166900722</v>
       </c>
       <c r="H24">
-        <v>1.200305339289957E-11</v>
+        <v>5.323349932406221E-13</v>
       </c>
       <c r="I24">
-        <v>3.420870216976378E-10</v>
+        <v>1.618298379451491E-11</v>
       </c>
       <c r="J24">
-        <v>5.473392347162205E-09</v>
+        <v>2.427447569177237E-10</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -3313,19 +3313,19 @@
         <v>1.102637812363954</v>
       </c>
       <c r="F25">
-        <v>1.019181609604443</v>
+        <v>1.019989117653712</v>
       </c>
       <c r="G25">
-        <v>1.123027872981164</v>
+        <v>1.123486499127632</v>
       </c>
       <c r="H25">
-        <v>4.035694638548454E-05</v>
+        <v>3.164351157626142E-05</v>
       </c>
       <c r="I25">
-        <v>0.0005111879875494</v>
+        <v>0.0004008178132993</v>
       </c>
       <c r="J25">
-        <v>0.0184027675517809</v>
+        <v>0.0144294412787752</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -3423,19 +3423,19 @@
         <v>1.101399610516287</v>
       </c>
       <c r="F26">
-        <v>1.057190049885674</v>
+        <v>1.057506555393347</v>
       </c>
       <c r="G26">
-        <v>1.14948024976713</v>
+        <v>1.149742123992432</v>
       </c>
       <c r="H26">
-        <v>4.263896893209232E-06</v>
+        <v>2.645379145020278E-06</v>
       </c>
       <c r="I26">
-        <v>6.076053072823155E-05</v>
+        <v>3.769665281653896E-05</v>
       </c>
       <c r="J26">
-        <v>0.0019443369833034</v>
+        <v>0.0012062928901292</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -3533,19 +3533,19 @@
         <v>1.094864815136445</v>
       </c>
       <c r="F27">
-        <v>1.07068202831742</v>
+        <v>1.070599752957171</v>
       </c>
       <c r="G27">
-        <v>1.107634624013793</v>
+        <v>1.108067617278229</v>
       </c>
       <c r="H27">
-        <v>4.734838022235927E-11</v>
+        <v>1.259853438211632E-10</v>
       </c>
       <c r="I27">
-        <v>1.270050669493872E-09</v>
+        <v>3.191628710136133E-09</v>
       </c>
       <c r="J27">
-        <v>2.159086138139582E-08</v>
+        <v>5.74493167824504E-08</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -3643,19 +3643,19 @@
         <v>1.094782484005221</v>
       </c>
       <c r="F28">
-        <v>1.054517783349528</v>
+        <v>1.053472419150427</v>
       </c>
       <c r="G28">
-        <v>1.1388061155385</v>
+        <v>1.136789861692729</v>
       </c>
       <c r="H28">
-        <v>1.034286765653336E-05</v>
+        <v>2.130651085716423E-05</v>
       </c>
       <c r="I28">
-        <v>0.0001347527900394</v>
+        <v>0.0002775933985961</v>
       </c>
       <c r="J28">
-        <v>0.0047163476513792</v>
+        <v>0.0097157689508668</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -3753,19 +3753,19 @@
         <v>1.093478763111872</v>
       </c>
       <c r="F29">
-        <v>1.054173269068689</v>
+        <v>1.056355820738487</v>
       </c>
       <c r="G29">
-        <v>1.146076704224168</v>
+        <v>1.14827453554937</v>
       </c>
       <c r="H29">
-        <v>1.025301725471704E-05</v>
+        <v>1.149883865253833E-05</v>
       </c>
       <c r="I29">
-        <v>0.0001375110549456</v>
+        <v>0.0001588930431987</v>
       </c>
       <c r="J29">
-        <v>0.0046753758681509</v>
+        <v>0.0052434704255574</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -3863,19 +3863,19 @@
         <v>1.090599788107703</v>
       </c>
       <c r="F30">
-        <v>1.039756447594392</v>
+        <v>1.038234480528144</v>
       </c>
       <c r="G30">
-        <v>1.14139921385843</v>
+        <v>1.147447289450978</v>
       </c>
       <c r="H30">
-        <v>0.0001398627042935</v>
+        <v>0.0002014156501727</v>
       </c>
       <c r="I30">
-        <v>0.0012755478631574</v>
+        <v>0.0018369107295751</v>
       </c>
       <c r="J30">
-        <v>0.06377739315787399</v>
+        <v>0.0918455364787593</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -3973,19 +3973,19 @@
         <v>1.08241425461755</v>
       </c>
       <c r="F31">
-        <v>1.000048694783381</v>
+        <v>1.00004236262291</v>
       </c>
       <c r="G31">
-        <v>1.094515660977501</v>
+        <v>1.0944257310044</v>
       </c>
       <c r="H31">
-        <v>3.06213604731813E-06</v>
+        <v>1.998735775785734E-05</v>
       </c>
       <c r="I31">
-        <v>4.504303347022797E-05</v>
+        <v>0.0002680657393406</v>
       </c>
       <c r="J31">
-        <v>0.001396334037577</v>
+        <v>0.0091142351375829</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -4083,19 +4083,19 @@
         <v>1.079455273592504</v>
       </c>
       <c r="F32">
-        <v>1.038374968920464</v>
+        <v>1.028916522025038</v>
       </c>
       <c r="G32">
-        <v>1.135218756198663</v>
+        <v>1.133607287967466</v>
       </c>
       <c r="H32">
-        <v>0.0006314448552483</v>
+        <v>0.0005863462929551</v>
       </c>
       <c r="I32">
-        <v>0.0051417652498791</v>
+        <v>0.0046907703436408</v>
       </c>
       <c r="J32">
-        <v>0.2879388539932339</v>
+        <v>0.2673739095875279</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -4193,19 +4193,19 @@
         <v>1.074612572601326</v>
       </c>
       <c r="F33">
-        <v>1.022608508841888</v>
+        <v>1.021983656089915</v>
       </c>
       <c r="G33">
-        <v>1.096577274014021</v>
+        <v>1.097013247420182</v>
       </c>
       <c r="H33">
-        <v>0.000315856449996</v>
+        <v>0.0003660857962065</v>
       </c>
       <c r="I33">
-        <v>0.0027175573810976</v>
+        <v>0.0030351840558219</v>
       </c>
       <c r="J33">
-        <v>0.144030541198177</v>
+        <v>0.1669351230702063</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -4303,19 +4303,19 @@
         <v>1.043807326931016</v>
       </c>
       <c r="F34">
-        <v>1.000012003143547</v>
+        <v>1.000021255190795</v>
       </c>
       <c r="G34">
-        <v>1.057304037448785</v>
+        <v>1.056959242013434</v>
       </c>
       <c r="H34">
-        <v>0.0005782155505987</v>
+        <v>0.0002941223642416</v>
       </c>
       <c r="I34">
-        <v>0.0049748356806231</v>
+        <v>0.0027371387366164</v>
       </c>
       <c r="J34">
-        <v>0.2636662910730285</v>
+        <v>0.1341197980942045</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -4410,19 +4410,19 @@
         <v>1.040320605288846</v>
       </c>
       <c r="F35">
-        <v>1.000045445657604</v>
+        <v>1.000045143906263</v>
       </c>
       <c r="G35">
-        <v>1.052837077128465</v>
+        <v>1.053824604642384</v>
       </c>
       <c r="H35">
-        <v>0.0008400079073604</v>
+        <v>0.0010249619999121</v>
       </c>
       <c r="I35">
-        <v>0.0067200632588839</v>
+        <v>0.007921740202710701</v>
       </c>
       <c r="J35">
-        <v>0.3830436057563871</v>
+        <v>0.467382671959934</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -4517,19 +4517,19 @@
         <v>1.035854409149813</v>
       </c>
       <c r="F36">
-        <v>1.000019528245675</v>
+        <v>1.000018061712667</v>
       </c>
       <c r="G36">
-        <v>1.046471565650364</v>
+        <v>1.045696806611115</v>
       </c>
       <c r="H36">
-        <v>9.020549997691606E-05</v>
+        <v>0.0001462469068236</v>
       </c>
       <c r="I36">
-        <v>0.0009793739997493</v>
+        <v>0.0015508974305015</v>
       </c>
       <c r="J36">
-        <v>0.0411337079894737</v>
+        <v>0.06668858951156741</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -4624,19 +4624,19 @@
         <v>1.032848783352244</v>
       </c>
       <c r="F37">
-        <v>1.000044090021232</v>
+        <v>1.000051609930629</v>
       </c>
       <c r="G37">
-        <v>1.042953234704619</v>
+        <v>1.042999856867783</v>
       </c>
       <c r="H37">
-        <v>0.0001321787052164</v>
+        <v>0.0001401979707548</v>
       </c>
       <c r="I37">
-        <v>0.0012824146718873</v>
+        <v>0.0013602186098767</v>
       </c>
       <c r="J37">
-        <v>0.060273489578707</v>
+        <v>0.06393027466420741</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -4854,10 +4854,10 @@
         <v>3.63740367056667</v>
       </c>
       <c r="F2">
-        <v>3.477611071596801</v>
+        <v>3.493803683913882</v>
       </c>
       <c r="G2">
-        <v>3.832630241722514</v>
+        <v>3.831841577495952</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -4961,13 +4961,13 @@
         <v>77</v>
       </c>
       <c r="E3">
-        <v>2.85377662105881</v>
+        <v>2.853775226764994</v>
       </c>
       <c r="F3">
-        <v>2.737157671575275</v>
+        <v>2.733756286639456</v>
       </c>
       <c r="G3">
-        <v>2.984894213658865</v>
+        <v>2.986415259918298</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -5074,10 +5074,10 @@
         <v>2.73132374992085</v>
       </c>
       <c r="F4">
-        <v>2.623849972672156</v>
+        <v>2.619699677517544</v>
       </c>
       <c r="G4">
-        <v>2.86991370549526</v>
+        <v>2.858499852193525</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -5181,22 +5181,22 @@
         <v>77</v>
       </c>
       <c r="E5">
-        <v>2.260118403095446</v>
+        <v>2.260117636145138</v>
       </c>
       <c r="F5">
-        <v>2.172672192528811</v>
+        <v>2.172072543532298</v>
       </c>
       <c r="G5">
-        <v>2.357491368026489</v>
+        <v>2.366988066551041</v>
       </c>
       <c r="H5">
-        <v>8.416204358350212E-301</v>
+        <v>1.176094032399587E-268</v>
       </c>
       <c r="I5">
-        <v>1.918894593703848E-298</v>
+        <v>2.687374864033057E-266</v>
       </c>
       <c r="J5">
-        <v>3.837789187407696E-298</v>
+        <v>5.374749728066114E-266</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -5294,19 +5294,19 @@
         <v>1.828220021383532</v>
       </c>
       <c r="F6">
-        <v>1.758682342172553</v>
+        <v>1.761060155983032</v>
       </c>
       <c r="G6">
-        <v>1.90508373421358</v>
+        <v>1.905184418569003</v>
       </c>
       <c r="H6">
-        <v>2.410239981508891E-188</v>
+        <v>1.499251248427622E-184</v>
       </c>
       <c r="I6">
-        <v>5.507398357747815E-186</v>
+        <v>3.425789102657116E-182</v>
       </c>
       <c r="J6">
-        <v>1.101479671549563E-185</v>
+        <v>6.851578205314232E-182</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -5404,19 +5404,19 @@
         <v>1.65375860168123</v>
       </c>
       <c r="F7">
-        <v>1.59335156361834</v>
+        <v>1.589125276744322</v>
       </c>
       <c r="G7">
-        <v>1.732056258361742</v>
+        <v>1.729966046403286</v>
       </c>
       <c r="H7">
-        <v>1.094891196335648E-120</v>
+        <v>5.579313888358484E-117</v>
       </c>
       <c r="I7">
-        <v>1.250913191813478E-118</v>
+        <v>8.499154823266091E-115</v>
       </c>
       <c r="J7">
-        <v>5.003652767253912E-118</v>
+        <v>2.549746446979827E-114</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -5511,22 +5511,22 @@
         <v>77</v>
       </c>
       <c r="E8">
-        <v>1.634545914497247</v>
+        <v>1.63454563214781</v>
       </c>
       <c r="F8">
-        <v>1.569384206451026</v>
+        <v>1.572062291751167</v>
       </c>
       <c r="G8">
-        <v>1.703798498839464</v>
+        <v>1.706377128841137</v>
       </c>
       <c r="H8">
-        <v>8.165370501833648E-115</v>
+        <v>1.843247236896588E-118</v>
       </c>
       <c r="I8">
-        <v>1.241136316278715E-112</v>
+        <v>2.807879957539136E-116</v>
       </c>
       <c r="J8">
-        <v>3.723408948836144E-112</v>
+        <v>8.423639872617407E-116</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -5624,19 +5624,19 @@
         <v>1.559870382035471</v>
       </c>
       <c r="F9">
-        <v>1.505283037184908</v>
+        <v>1.505071295719435</v>
       </c>
       <c r="G9">
-        <v>1.617461677722591</v>
+        <v>1.621434040095332</v>
       </c>
       <c r="H9">
-        <v>1.48979994276263E-124</v>
+        <v>2.302292410457716E-116</v>
       </c>
       <c r="I9">
-        <v>2.269461912808406E-122</v>
+        <v>2.630369078947941E-114</v>
       </c>
       <c r="J9">
-        <v>6.808385738425219E-122</v>
+        <v>1.052147631579176E-113</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -5734,19 +5734,19 @@
         <v>1.542859563869683</v>
       </c>
       <c r="F10">
-        <v>1.492282074463705</v>
+        <v>1.488699176847831</v>
       </c>
       <c r="G10">
-        <v>1.615909944462279</v>
+        <v>1.608734792839579</v>
       </c>
       <c r="H10">
-        <v>6.772793131076603E-104</v>
+        <v>8.767970677560267E-105</v>
       </c>
       <c r="I10">
-        <v>5.158610768170012E-102</v>
+        <v>6.678270999408403E-103</v>
       </c>
       <c r="J10">
-        <v>3.095166460902007E-101</v>
+        <v>4.006962599645042E-102</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -5841,22 +5841,22 @@
         <v>77</v>
       </c>
       <c r="E11">
-        <v>1.512417050693439</v>
+        <v>1.512416534055445</v>
       </c>
       <c r="F11">
-        <v>1.462717592848501</v>
+        <v>1.45524859388987</v>
       </c>
       <c r="G11">
-        <v>1.585514362669483</v>
+        <v>1.587331798097422</v>
       </c>
       <c r="H11">
-        <v>6.056969902597232E-81</v>
+        <v>1.570658655772705E-80</v>
       </c>
       <c r="I11">
-        <v>6.904945688960845E-79</v>
+        <v>1.794477514220315E-78</v>
       </c>
       <c r="J11">
-        <v>2.761978275584338E-78</v>
+        <v>7.177910056881263E-78</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -5951,22 +5951,22 @@
         <v>77</v>
       </c>
       <c r="E12">
-        <v>1.444488890960278</v>
+        <v>1.444488737770015</v>
       </c>
       <c r="F12">
-        <v>1.389221343405079</v>
+        <v>1.389410781924608</v>
       </c>
       <c r="G12">
-        <v>1.505415159216896</v>
+        <v>1.499821680767707</v>
       </c>
       <c r="H12">
-        <v>1.022192025773122E-72</v>
+        <v>2.219792866415672E-76</v>
       </c>
       <c r="I12">
-        <v>7.768659395875724E-71</v>
+        <v>2.028890679903924E-74</v>
       </c>
       <c r="J12">
-        <v>4.661195637525434E-70</v>
+        <v>1.014445339951962E-73</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -6061,22 +6061,22 @@
         <v>77</v>
       </c>
       <c r="E13">
-        <v>1.425153802431691</v>
+        <v>1.425153572420667</v>
       </c>
       <c r="F13">
-        <v>1.376271484298985</v>
+        <v>1.374919080713649</v>
       </c>
       <c r="G13">
-        <v>1.492137322417946</v>
+        <v>1.49022414533378</v>
       </c>
       <c r="H13">
-        <v>2.680552532136637E-63</v>
+        <v>1.257490094299848E-65</v>
       </c>
       <c r="I13">
-        <v>1.746188506649009E-61</v>
+        <v>8.20961390135758E-64</v>
       </c>
       <c r="J13">
-        <v>1.222331954654306E-60</v>
+        <v>5.746729730950306E-63</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -6174,19 +6174,19 @@
         <v>1.383286753717748</v>
       </c>
       <c r="F14">
-        <v>1.335528739917549</v>
+        <v>1.337412972597292</v>
       </c>
       <c r="G14">
-        <v>1.440300176110817</v>
+        <v>1.44045948359195</v>
       </c>
       <c r="H14">
-        <v>1.375640262477074E-59</v>
+        <v>3.350734338734148E-63</v>
       </c>
       <c r="I14">
-        <v>8.980965713600324E-58</v>
+        <v>2.187550846859294E-61</v>
       </c>
       <c r="J14">
-        <v>6.286675999520228E-57</v>
+        <v>1.531285592801505E-60</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -6281,22 +6281,22 @@
         <v>77</v>
       </c>
       <c r="E15">
-        <v>1.300902217261472</v>
+        <v>1.300902121406475</v>
       </c>
       <c r="F15">
-        <v>1.256245822913881</v>
+        <v>1.253631577129527</v>
       </c>
       <c r="G15">
-        <v>1.36369550619694</v>
+        <v>1.367999302644386</v>
       </c>
       <c r="H15">
-        <v>1.114275206985253E-35</v>
+        <v>4.661858277867448E-34</v>
       </c>
       <c r="I15">
-        <v>6.351368679815942E-34</v>
+        <v>2.663086541231779E-32</v>
       </c>
       <c r="J15">
-        <v>5.081094943852754E-33</v>
+        <v>2.130469232985424E-31</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -6394,19 +6394,19 @@
         <v>1.257358256337618</v>
       </c>
       <c r="F16">
-        <v>1.215872881875166</v>
+        <v>1.21829533490864</v>
       </c>
       <c r="G16">
-        <v>1.296745442138447</v>
+        <v>1.297581856689615</v>
       </c>
       <c r="H16">
-        <v>4.987718773692958E-41</v>
+        <v>2.396611987094662E-41</v>
       </c>
       <c r="I16">
-        <v>2.849234349472102E-39</v>
+        <v>1.369064597627826E-39</v>
       </c>
       <c r="J16">
-        <v>2.279387479577682E-38</v>
+        <v>1.095251678102261E-38</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -6504,19 +6504,19 @@
         <v>1.250162858049973</v>
       </c>
       <c r="F17">
-        <v>1.201372075375183</v>
+        <v>1.20380879883987</v>
       </c>
       <c r="G17">
-        <v>1.295759560207987</v>
+        <v>1.294458247128799</v>
       </c>
       <c r="H17">
-        <v>5.98339328510136E-31</v>
+        <v>5.562076659290849E-32</v>
       </c>
       <c r="I17">
-        <v>2.734410731291322E-29</v>
+        <v>2.824298925884354E-30</v>
       </c>
       <c r="J17">
-        <v>2.734410731291321E-28</v>
+        <v>2.541869033295918E-29</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -6611,22 +6611,22 @@
         <v>77</v>
       </c>
       <c r="E18">
-        <v>1.205348406269189</v>
+        <v>1.20534829204361</v>
       </c>
       <c r="F18">
-        <v>1.16227104633051</v>
+        <v>1.164199681515604</v>
       </c>
       <c r="G18">
-        <v>1.246270303219367</v>
+        <v>1.247082753665574</v>
       </c>
       <c r="H18">
-        <v>2.813317691625374E-22</v>
+        <v>6.606609040384161E-24</v>
       </c>
       <c r="I18">
-        <v>1.282872867381171E-20</v>
+        <v>3.019220331455562E-22</v>
       </c>
       <c r="J18">
-        <v>1.282872867381171E-19</v>
+        <v>3.019220331455562E-21</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -6721,22 +6721,22 @@
         <v>78</v>
       </c>
       <c r="E19">
-        <v>1.193002303366686</v>
+        <v>1.1930022102007</v>
       </c>
       <c r="F19">
-        <v>1.145398211076766</v>
+        <v>1.145560040689927</v>
       </c>
       <c r="G19">
-        <v>1.237774210025226</v>
+        <v>1.23527599267535</v>
       </c>
       <c r="H19">
-        <v>1.301374262413932E-17</v>
+        <v>4.126832109548498E-18</v>
       </c>
       <c r="I19">
-        <v>4.564820489698099E-16</v>
+        <v>1.571635228386386E-16</v>
       </c>
       <c r="J19">
-        <v>5.934266636607528E-15</v>
+        <v>1.885962274063663E-15</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -6834,19 +6834,19 @@
         <v>1.135282758397827</v>
       </c>
       <c r="F20">
-        <v>1.082373423811926</v>
+        <v>1.080510450235722</v>
       </c>
       <c r="G20">
-        <v>1.181505572101917</v>
+        <v>1.179588004216928</v>
       </c>
       <c r="H20">
-        <v>1.176129464752805E-08</v>
+        <v>1.348005373590018E-08</v>
       </c>
       <c r="I20">
-        <v>2.828900870484377E-07</v>
+        <v>3.2423076617402E-07</v>
       </c>
       <c r="J20">
-        <v>5.374911653920317E-06</v>
+        <v>6.16038455730638E-06</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -6941,22 +6941,22 @@
         <v>78</v>
       </c>
       <c r="E21">
-        <v>1.13213331814549</v>
+        <v>1.132133213762091</v>
       </c>
       <c r="F21">
-        <v>1.091579651033359</v>
+        <v>1.09147731010792</v>
       </c>
       <c r="G21">
-        <v>1.186884989104554</v>
+        <v>1.189721072272455</v>
       </c>
       <c r="H21">
-        <v>5.758572251991773E-09</v>
+        <v>2.162087639056692E-09</v>
       </c>
       <c r="I21">
-        <v>1.193594975867386E-07</v>
+        <v>4.705114528804325E-08</v>
       </c>
       <c r="J21">
-        <v>2.625908946908249E-06</v>
+        <v>9.880740510489082E-07</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -7054,19 +7054,19 @@
         <v>1.130918007701215</v>
       </c>
       <c r="F22">
-        <v>1.089743855737465</v>
+        <v>1.091226422059676</v>
       </c>
       <c r="G22">
-        <v>1.178440601270027</v>
+        <v>1.181152827399705</v>
       </c>
       <c r="H22">
-        <v>9.513371773612378E-10</v>
+        <v>4.99052578858492E-10</v>
       </c>
       <c r="I22">
-        <v>2.717256812838036E-08</v>
+        <v>1.341570756107828E-08</v>
       </c>
       <c r="J22">
-        <v>4.347610900540857E-07</v>
+        <v>2.280670285383309E-07</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -7164,19 +7164,19 @@
         <v>1.127166550478315</v>
       </c>
       <c r="F23">
-        <v>1.087159491039456</v>
+        <v>1.081857815880095</v>
       </c>
       <c r="G23">
-        <v>1.167846043497145</v>
+        <v>1.168033064589892</v>
       </c>
       <c r="H23">
-        <v>2.260159724980572E-09</v>
+        <v>5.969171045350353E-09</v>
       </c>
       <c r="I23">
-        <v>6.075841143036009E-08</v>
+        <v>1.515506204291729E-07</v>
       </c>
       <c r="J23">
-        <v>1.032892994316122E-06</v>
+        <v>2.727911167725111E-06</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -7271,22 +7271,22 @@
         <v>79</v>
       </c>
       <c r="E24">
-        <v>1.113503399178037</v>
+        <v>1.11350341284795</v>
       </c>
       <c r="F24">
-        <v>1.053409772582766</v>
+        <v>1.05713146773625</v>
       </c>
       <c r="G24">
-        <v>1.132530695822099</v>
+        <v>1.132286552520989</v>
       </c>
       <c r="H24">
-        <v>1.200305339289957E-11</v>
+        <v>1.375636431546184E-11</v>
       </c>
       <c r="I24">
-        <v>3.420870216976378E-10</v>
+        <v>3.492588051203367E-10</v>
       </c>
       <c r="J24">
-        <v>5.473392347162205E-09</v>
+        <v>6.286658492166061E-09</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -7381,22 +7381,22 @@
         <v>79</v>
       </c>
       <c r="E25">
-        <v>1.102637812363954</v>
+        <v>1.102637941204791</v>
       </c>
       <c r="F25">
-        <v>1.019181609604443</v>
+        <v>1.019506613328473</v>
       </c>
       <c r="G25">
-        <v>1.123027872981164</v>
+        <v>1.122252042631506</v>
       </c>
       <c r="H25">
-        <v>4.035694638548454E-05</v>
+        <v>6.452315008245886E-05</v>
       </c>
       <c r="I25">
-        <v>0.0005111879875494</v>
+        <v>0.0007560789637867</v>
       </c>
       <c r="J25">
-        <v>0.0184027675517809</v>
+        <v>0.0294870795876837</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -7491,22 +7491,22 @@
         <v>79</v>
       </c>
       <c r="E26">
-        <v>1.101399610516287</v>
+        <v>1.101399626501385</v>
       </c>
       <c r="F26">
-        <v>1.057190049885674</v>
+        <v>1.057060035654774</v>
       </c>
       <c r="G26">
-        <v>1.14948024976713</v>
+        <v>1.144491555034608</v>
       </c>
       <c r="H26">
-        <v>4.263896893209232E-06</v>
+        <v>6.894036417637329E-07</v>
       </c>
       <c r="I26">
-        <v>6.076053072823155E-05</v>
+        <v>1.12520522959295E-05</v>
       </c>
       <c r="J26">
-        <v>0.0019443369833034</v>
+        <v>0.000315057464286</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -7601,22 +7601,22 @@
         <v>79</v>
       </c>
       <c r="E27">
-        <v>1.094864815136445</v>
+        <v>1.094864776987666</v>
       </c>
       <c r="F27">
-        <v>1.07068202831742</v>
+        <v>1.070947825604549</v>
       </c>
       <c r="G27">
-        <v>1.107634624013793</v>
+        <v>1.1075183222163</v>
       </c>
       <c r="H27">
-        <v>4.734838022235927E-11</v>
+        <v>2.622443293327221E-12</v>
       </c>
       <c r="I27">
-        <v>1.270050669493872E-09</v>
+        <v>7.049744617944354E-11</v>
       </c>
       <c r="J27">
-        <v>2.159086138139582E-08</v>
+        <v>1.19845658505054E-09</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -7711,22 +7711,22 @@
         <v>78</v>
       </c>
       <c r="E28">
-        <v>1.094782484005221</v>
+        <v>1.094782493401193</v>
       </c>
       <c r="F28">
-        <v>1.054517783349528</v>
+        <v>1.053308433651904</v>
       </c>
       <c r="G28">
-        <v>1.1388061155385</v>
+        <v>1.137536819787596</v>
       </c>
       <c r="H28">
-        <v>1.034286765653336E-05</v>
+        <v>1.414924266551116E-05</v>
       </c>
       <c r="I28">
-        <v>0.0001347527900394</v>
+        <v>0.0001847486828039</v>
       </c>
       <c r="J28">
-        <v>0.0047163476513792</v>
+        <v>0.0064662038981386</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -7821,22 +7821,22 @@
         <v>79</v>
       </c>
       <c r="E29">
-        <v>1.093478763111872</v>
+        <v>1.093478728479433</v>
       </c>
       <c r="F29">
-        <v>1.054173269068689</v>
+        <v>1.053366610225762</v>
       </c>
       <c r="G29">
-        <v>1.146076704224168</v>
+        <v>1.148299131110094</v>
       </c>
       <c r="H29">
-        <v>1.025301725471704E-05</v>
+        <v>2.865192895895502E-05</v>
       </c>
       <c r="I29">
-        <v>0.0001375110549456</v>
+        <v>0.0003637203203956</v>
       </c>
       <c r="J29">
-        <v>0.0046753758681509</v>
+        <v>0.0130939315342424</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -7931,22 +7931,22 @@
         <v>79</v>
       </c>
       <c r="E30">
-        <v>1.090599788107703</v>
+        <v>1.090599638257225</v>
       </c>
       <c r="F30">
-        <v>1.039756447594392</v>
+        <v>1.038650615514274</v>
       </c>
       <c r="G30">
-        <v>1.14139921385843</v>
+        <v>1.151089427015394</v>
       </c>
       <c r="H30">
-        <v>0.0001398627042935</v>
+        <v>0.0002691022276571</v>
       </c>
       <c r="I30">
-        <v>0.0012755478631574</v>
+        <v>0.0023649945776792</v>
       </c>
       <c r="J30">
-        <v>0.06377739315787399</v>
+        <v>0.1229797180393233</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -8041,22 +8041,22 @@
         <v>79</v>
       </c>
       <c r="E31">
-        <v>1.08241425461755</v>
+        <v>1.082414239639354</v>
       </c>
       <c r="F31">
-        <v>1.000048694783381</v>
+        <v>1.000047803989811</v>
       </c>
       <c r="G31">
-        <v>1.094515660977501</v>
+        <v>1.094557974245082</v>
       </c>
       <c r="H31">
-        <v>3.06213604731813E-06</v>
+        <v>8.718950228982607E-06</v>
       </c>
       <c r="I31">
-        <v>4.504303347022797E-05</v>
+        <v>0.000117192948666</v>
       </c>
       <c r="J31">
-        <v>0.001396334037577</v>
+        <v>0.003984560254645</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -8151,22 +8151,22 @@
         <v>79</v>
       </c>
       <c r="E32">
-        <v>1.079455273592504</v>
+        <v>1.079455243871357</v>
       </c>
       <c r="F32">
-        <v>1.038374968920464</v>
+        <v>1.035307484891922</v>
       </c>
       <c r="G32">
-        <v>1.135218756198663</v>
+        <v>1.135030057113391</v>
       </c>
       <c r="H32">
-        <v>0.0006314448552483</v>
+        <v>0.0006533288257982</v>
       </c>
       <c r="I32">
-        <v>0.0051417652498791</v>
+        <v>0.0051477805756865</v>
       </c>
       <c r="J32">
-        <v>0.2879388539932339</v>
+        <v>0.2985712733898227</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -8261,22 +8261,22 @@
         <v>79</v>
       </c>
       <c r="E33">
-        <v>1.074612572601326</v>
+        <v>1.074612586086497</v>
       </c>
       <c r="F33">
-        <v>1.022608508841888</v>
+        <v>1.023643274738546</v>
       </c>
       <c r="G33">
-        <v>1.096577274014021</v>
+        <v>1.097877435339457</v>
       </c>
       <c r="H33">
-        <v>0.000315856449996</v>
+        <v>0.0003344217162784</v>
       </c>
       <c r="I33">
-        <v>0.0027175573810976</v>
+        <v>0.0028301985988747</v>
       </c>
       <c r="J33">
-        <v>0.144030541198177</v>
+        <v>0.1528307243392346</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -8374,19 +8374,19 @@
         <v>1.043807261426815</v>
       </c>
       <c r="F34">
-        <v>1.000020663279783</v>
+        <v>1.000019169984624</v>
       </c>
       <c r="G34">
-        <v>1.057256616456233</v>
+        <v>1.057601979289085</v>
       </c>
       <c r="H34">
-        <v>0.0004303532518427</v>
+        <v>0.0004852746622977</v>
       </c>
       <c r="I34">
-        <v>0.0038563026684729</v>
+        <v>0.0041068614938899</v>
       </c>
       <c r="J34">
-        <v>0.1966714360921189</v>
+        <v>0.2217705206700594</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -8478,22 +8478,22 @@
         <v>79</v>
       </c>
       <c r="E35">
-        <v>1.040320605288846</v>
+        <v>1.040320545106551</v>
       </c>
       <c r="F35">
-        <v>1.000045445657604</v>
+        <v>1.000043393544703</v>
       </c>
       <c r="G35">
-        <v>1.052837077128465</v>
+        <v>1.053484523482561</v>
       </c>
       <c r="H35">
-        <v>0.0008400079073604</v>
+        <v>0.000984441233868</v>
       </c>
       <c r="I35">
-        <v>0.0067200632588839</v>
+        <v>0.0076252482013168</v>
       </c>
       <c r="J35">
-        <v>0.3830436057563871</v>
+        <v>0.4498896438776912</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -8588,19 +8588,19 @@
         <v>1.035854518845823</v>
       </c>
       <c r="F36">
-        <v>1.000014966820635</v>
+        <v>1.000014476862437</v>
       </c>
       <c r="G36">
-        <v>1.04658192507875</v>
+        <v>1.046256229669815</v>
       </c>
       <c r="H36">
-        <v>0.0001433823163247</v>
+        <v>6.479661760318072E-05</v>
       </c>
       <c r="I36">
-        <v>0.0014892208763731</v>
+        <v>0.0007222452254793</v>
       </c>
       <c r="J36">
-        <v>0.06552571856041681</v>
+        <v>0.0296120542446535</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -8692,22 +8692,22 @@
         <v>79</v>
       </c>
       <c r="E37">
-        <v>1.032848783352244</v>
+        <v>1.032848835093144</v>
       </c>
       <c r="F37">
-        <v>1.000044090021232</v>
+        <v>1.000039408553901</v>
       </c>
       <c r="G37">
-        <v>1.042953234704619</v>
+        <v>1.042667372513286</v>
       </c>
       <c r="H37">
-        <v>0.0001321787052164</v>
+        <v>0.0002192772436645</v>
       </c>
       <c r="I37">
-        <v>0.0012824146718873</v>
+        <v>0.0019648960853866</v>
       </c>
       <c r="J37">
-        <v>0.060273489578707</v>
+        <v>0.1002097003547191</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -8792,7 +8792,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ41"/>
+  <dimension ref="A1:AJ44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8925,10 +8925,10 @@
         <v>3.700557372782735</v>
       </c>
       <c r="F2">
-        <v>3.540262240447402</v>
+        <v>3.549311788594494</v>
       </c>
       <c r="G2">
-        <v>3.893142300198984</v>
+        <v>3.913943588919192</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -9032,13 +9032,13 @@
         <v>77</v>
       </c>
       <c r="E3">
-        <v>2.85377662105881</v>
+        <v>2.887622352960368</v>
       </c>
       <c r="F3">
-        <v>2.737157671575275</v>
+        <v>2.764447330409864</v>
       </c>
       <c r="G3">
-        <v>2.984894213658865</v>
+        <v>3.036886650432134</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -9145,10 +9145,10 @@
         <v>2.732216900718943</v>
       </c>
       <c r="F4">
-        <v>2.631145259134054</v>
+        <v>2.622204931202169</v>
       </c>
       <c r="G4">
-        <v>2.875170993408407</v>
+        <v>2.87579584845386</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -9252,22 +9252,22 @@
         <v>77</v>
       </c>
       <c r="E5">
-        <v>2.260118403095446</v>
+        <v>2.26355373863772</v>
       </c>
       <c r="F5">
-        <v>2.172672192528811</v>
+        <v>2.17525472928424</v>
       </c>
       <c r="G5">
-        <v>2.357491368026489</v>
+        <v>2.371282469028266</v>
       </c>
       <c r="H5">
-        <v>8.416204358350212E-301</v>
+        <v>9.626832760628696E-272</v>
       </c>
       <c r="I5">
-        <v>1.918894593703848E-298</v>
+        <v>4.928938373441893E-269</v>
       </c>
       <c r="J5">
-        <v>3.837789187407696E-298</v>
+        <v>9.857876746883787E-269</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -9365,19 +9365,19 @@
         <v>1.856117551153367</v>
       </c>
       <c r="F6">
-        <v>1.780421957089192</v>
+        <v>1.785010315063232</v>
       </c>
       <c r="G6">
-        <v>1.930532341917031</v>
+        <v>1.936722323545829</v>
       </c>
       <c r="H6">
-        <v>2.900454191794632E-180</v>
+        <v>3.1381969656048E-182</v>
       </c>
       <c r="I6">
-        <v>1.485032546198851E-177</v>
+        <v>1.606756846389658E-179</v>
       </c>
       <c r="J6">
-        <v>2.970065092397703E-177</v>
+        <v>3.213513692779315E-179</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -9475,19 +9475,19 @@
         <v>1.682203451469444</v>
       </c>
       <c r="F7">
-        <v>1.615473492720884</v>
+        <v>1.618958866112913</v>
       </c>
       <c r="G7">
-        <v>1.755600567029276</v>
+        <v>1.764844796765482</v>
       </c>
       <c r="H7">
-        <v>2.06714881511398E-120</v>
+        <v>5.612794958489656E-117</v>
       </c>
       <c r="I7">
-        <v>5.291900966691789E-118</v>
+        <v>1.436875509373352E-114</v>
       </c>
       <c r="J7">
-        <v>2.116760386676716E-117</v>
+        <v>5.747502037493408E-114</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -9582,22 +9582,22 @@
         <v>77</v>
       </c>
       <c r="E8">
-        <v>1.634545914497247</v>
+        <v>1.660138848482136</v>
       </c>
       <c r="F8">
-        <v>1.569384206451026</v>
+        <v>1.595021889892172</v>
       </c>
       <c r="G8">
-        <v>1.703798498839464</v>
+        <v>1.736512064907372</v>
       </c>
       <c r="H8">
-        <v>8.165370501833648E-115</v>
+        <v>2.848550636119069E-114</v>
       </c>
       <c r="I8">
-        <v>1.241136316278715E-112</v>
+        <v>9.723052837953093E-112</v>
       </c>
       <c r="J8">
-        <v>3.723408948836144E-112</v>
+        <v>2.916915851385927E-111</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -9695,19 +9695,19 @@
         <v>1.57020876475771</v>
       </c>
       <c r="F9">
-        <v>1.516090540846991</v>
+        <v>1.519158410859006</v>
       </c>
       <c r="G9">
-        <v>1.630942441589127</v>
+        <v>1.626736905300958</v>
       </c>
       <c r="H9">
-        <v>1.704165537129063E-124</v>
+        <v>6.420283589560425E-137</v>
       </c>
       <c r="I9">
-        <v>5.816885033400537E-122</v>
+        <v>2.19145679856996E-134</v>
       </c>
       <c r="J9">
-        <v>1.745065510020161E-121</v>
+        <v>6.574370395709878E-134</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -9790,222 +9790,222 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
         <v>77</v>
       </c>
       <c r="E10">
-        <v>1.538657512023091</v>
+        <v>1.544405739495284</v>
       </c>
       <c r="F10">
-        <v>1.492056128164352</v>
+        <v>1.476434864033047</v>
       </c>
       <c r="G10">
-        <v>1.615684300286835</v>
+        <v>1.624111793239635</v>
       </c>
       <c r="H10">
-        <v>7.279530501382621E-98</v>
+        <v>1.203436833106844E-70</v>
       </c>
       <c r="I10">
-        <v>1.490847846683161E-95</v>
+        <v>2.464638634202816E-68</v>
       </c>
       <c r="J10">
-        <v>7.454239233415804E-95</v>
+        <v>1.232319317101408E-67</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>206</v>
+        <v>340</v>
       </c>
       <c r="M10">
         <v>23134</v>
       </c>
       <c r="N10">
-        <v>178</v>
+        <v>280</v>
       </c>
       <c r="O10">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="P10">
-        <v>18009</v>
+        <v>17977</v>
       </c>
       <c r="Q10">
-        <v>4919</v>
+        <v>4817</v>
       </c>
       <c r="R10">
-        <v>0.8640776699029126</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="S10">
-        <v>0.7854588276343336</v>
+        <v>0.7886724576642976</v>
       </c>
       <c r="T10">
-        <v>0.0349225034333921</v>
+        <v>0.054934275063763</v>
       </c>
       <c r="U10">
-        <v>0.9984476354160892</v>
+        <v>0.996673504463048</v>
       </c>
       <c r="V10">
-        <v>22.49632837243216</v>
+        <v>16.51415865541804</v>
       </c>
       <c r="W10">
-        <v>0.9665779779872232</v>
+        <v>0.9482199744492912</v>
       </c>
       <c r="X10">
-        <v>0.8102126823112078</v>
+        <v>0.7792890617329601</v>
       </c>
       <c r="Y10">
-        <v>0.9044576053477148</v>
+        <v>0.8604895437896319</v>
       </c>
       <c r="Z10">
-        <v>0.7800974363629922</v>
+        <v>0.783323895127681</v>
       </c>
       <c r="AA10">
-        <v>0.7907245707564137</v>
+        <v>0.7939237266814204</v>
       </c>
       <c r="AB10">
-        <v>0.0302215238388164</v>
+        <v>0.0490062699826948</v>
       </c>
       <c r="AC10">
-        <v>0.0403243180677418</v>
+        <v>0.0615329590259647</v>
       </c>
       <c r="AD10">
-        <v>0.9977572380691722</v>
+        <v>0.9957208321589078</v>
       </c>
       <c r="AE10">
-        <v>0.9989257341271632</v>
+        <v>0.9974146337685568</v>
       </c>
       <c r="AF10">
-        <v>15.12091428151686</v>
+        <v>12.51736265393956</v>
       </c>
       <c r="AG10">
-        <v>33.46919245874648</v>
+        <v>21.78713229263889</v>
       </c>
       <c r="AH10">
-        <v>0.961512712811716</v>
+        <v>0.9419138835250672</v>
       </c>
       <c r="AI10">
-        <v>0.9716699270650404</v>
+        <v>0.954568284501442</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:36">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
         <v>77</v>
       </c>
       <c r="E11">
-        <v>1.512417050693439</v>
+        <v>1.538657512023091</v>
       </c>
       <c r="F11">
-        <v>1.462717592848501</v>
+        <v>1.489376145701287</v>
       </c>
       <c r="G11">
-        <v>1.585514362669483</v>
+        <v>1.609347194679385</v>
       </c>
       <c r="H11">
-        <v>6.056969902597232E-81</v>
+        <v>3.472950238888548E-99</v>
       </c>
       <c r="I11">
-        <v>6.904945688960845E-79</v>
+        <v>7.112602089243749E-97</v>
       </c>
       <c r="J11">
-        <v>2.761978275584338E-78</v>
+        <v>3.556301044621873E-96</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>340</v>
+        <v>206</v>
       </c>
       <c r="M11">
         <v>23134</v>
       </c>
       <c r="N11">
-        <v>280</v>
+        <v>178</v>
       </c>
       <c r="O11">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="P11">
-        <v>17977</v>
+        <v>18009</v>
       </c>
       <c r="Q11">
-        <v>4817</v>
+        <v>4919</v>
       </c>
       <c r="R11">
-        <v>0.8235294117647058</v>
+        <v>0.8640776699029126</v>
       </c>
       <c r="S11">
-        <v>0.7886724576642976</v>
+        <v>0.7854588276343336</v>
       </c>
       <c r="T11">
-        <v>0.054934275063763</v>
+        <v>0.0349225034333921</v>
       </c>
       <c r="U11">
-        <v>0.996673504463048</v>
+        <v>0.9984476354160892</v>
       </c>
       <c r="V11">
-        <v>16.51415865541804</v>
+        <v>22.49632837243216</v>
       </c>
       <c r="W11">
-        <v>0.9482199744492912</v>
+        <v>0.9665779779872232</v>
       </c>
       <c r="X11">
-        <v>0.7792890617329601</v>
+        <v>0.8102126823112078</v>
       </c>
       <c r="Y11">
-        <v>0.8604895437896319</v>
+        <v>0.9044576053477148</v>
       </c>
       <c r="Z11">
-        <v>0.783323895127681</v>
+        <v>0.7800974363629922</v>
       </c>
       <c r="AA11">
-        <v>0.7939237266814204</v>
+        <v>0.7907245707564137</v>
       </c>
       <c r="AB11">
-        <v>0.0490062699826948</v>
+        <v>0.0302215238388164</v>
       </c>
       <c r="AC11">
-        <v>0.0615329590259647</v>
+        <v>0.0403243180677418</v>
       </c>
       <c r="AD11">
-        <v>0.9957208321589078</v>
+        <v>0.9977572380691722</v>
       </c>
       <c r="AE11">
-        <v>0.9974146337685568</v>
+        <v>0.9989257341271632</v>
       </c>
       <c r="AF11">
-        <v>12.51736265393956</v>
+        <v>15.12091428151686</v>
       </c>
       <c r="AG11">
-        <v>21.78713229263889</v>
+        <v>33.46919245874648</v>
       </c>
       <c r="AH11">
-        <v>0.9419138835250672</v>
+        <v>0.961512712811716</v>
       </c>
       <c r="AI11">
-        <v>0.954568284501442</v>
+        <v>0.9716699270650404</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -10022,22 +10022,22 @@
         <v>77</v>
       </c>
       <c r="E12">
-        <v>1.444488890960278</v>
+        <v>1.460048964410711</v>
       </c>
       <c r="F12">
-        <v>1.389221343405079</v>
+        <v>1.402689640544561</v>
       </c>
       <c r="G12">
-        <v>1.505415159216896</v>
+        <v>1.509554496727576</v>
       </c>
       <c r="H12">
-        <v>1.022192025773122E-72</v>
+        <v>3.857928310799966E-92</v>
       </c>
       <c r="I12">
-        <v>7.768659395875724E-71</v>
+        <v>9.876296475647914E-90</v>
       </c>
       <c r="J12">
-        <v>4.661195637525434E-70</v>
+        <v>3.950518590259166E-89</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -10132,22 +10132,22 @@
         <v>77</v>
       </c>
       <c r="E13">
-        <v>1.425153802431691</v>
+        <v>1.426880952105706</v>
       </c>
       <c r="F13">
-        <v>1.376271484298985</v>
+        <v>1.37675437214533</v>
       </c>
       <c r="G13">
-        <v>1.492137322417946</v>
+        <v>1.498741983123102</v>
       </c>
       <c r="H13">
-        <v>2.680552532136637E-63</v>
+        <v>8.469474719167016E-61</v>
       </c>
       <c r="I13">
-        <v>1.746188506649009E-61</v>
+        <v>1.238963158918147E-58</v>
       </c>
       <c r="J13">
-        <v>1.222331954654306E-60</v>
+        <v>8.672742112427026E-58</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -10245,19 +10245,19 @@
         <v>1.397428864290096</v>
       </c>
       <c r="F14">
-        <v>1.348810079542418</v>
+        <v>1.354146946489559</v>
       </c>
       <c r="G14">
-        <v>1.457028547978788</v>
+        <v>1.458455923351407</v>
       </c>
       <c r="H14">
-        <v>1.776475612116866E-64</v>
+        <v>1.720604806886549E-71</v>
       </c>
       <c r="I14">
-        <v>2.598730038296672E-62</v>
+        <v>2.516999031788323E-69</v>
       </c>
       <c r="J14">
-        <v>1.819111026807671E-61</v>
+        <v>1.761899322251826E-68</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -10352,22 +10352,22 @@
         <v>77</v>
       </c>
       <c r="E15">
-        <v>1.300902217261472</v>
+        <v>1.310847146956707</v>
       </c>
       <c r="F15">
-        <v>1.256245822913881</v>
+        <v>1.26146008227581</v>
       </c>
       <c r="G15">
-        <v>1.36369550619694</v>
+        <v>1.373678871969143</v>
       </c>
       <c r="H15">
-        <v>1.114275206985253E-35</v>
+        <v>3.577467734955166E-37</v>
       </c>
       <c r="I15">
-        <v>6.351368679815942E-34</v>
+        <v>4.579158700742612E-35</v>
       </c>
       <c r="J15">
-        <v>5.081094943852754E-33</v>
+        <v>3.66332696059409E-34</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -10465,19 +10465,19 @@
         <v>1.252568765798943</v>
       </c>
       <c r="F16">
-        <v>1.198246756689178</v>
+        <v>1.196841439648928</v>
       </c>
       <c r="G16">
-        <v>1.297499861234875</v>
+        <v>1.29962021264157</v>
       </c>
       <c r="H16">
-        <v>6.329972869447722E-28</v>
+        <v>1.209340429115436E-26</v>
       </c>
       <c r="I16">
-        <v>7.202102464793852E-26</v>
+        <v>1.375960666015785E-24</v>
       </c>
       <c r="J16">
-        <v>6.481892218314467E-25</v>
+        <v>1.238364599414207E-23</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -10575,19 +10575,19 @@
         <v>1.245005511571922</v>
       </c>
       <c r="F17">
-        <v>1.20080349407162</v>
+        <v>1.20422234807845</v>
       </c>
       <c r="G17">
-        <v>1.28726489113771</v>
+        <v>1.287896916389012</v>
       </c>
       <c r="H17">
-        <v>7.536792183219491E-35</v>
+        <v>4.498453455143402E-34</v>
       </c>
       <c r="I17">
-        <v>9.647093994520948E-33</v>
+        <v>5.758020422583554E-32</v>
       </c>
       <c r="J17">
-        <v>7.717675195616756E-32</v>
+        <v>4.606416338066843E-31</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -10682,22 +10682,22 @@
         <v>77</v>
       </c>
       <c r="E18">
-        <v>1.205348406269189</v>
+        <v>1.193312559146927</v>
       </c>
       <c r="F18">
-        <v>1.16227104633051</v>
+        <v>1.149688204876208</v>
       </c>
       <c r="G18">
-        <v>1.246270303219367</v>
+        <v>1.238124402514695</v>
       </c>
       <c r="H18">
-        <v>2.813317691625374E-22</v>
+        <v>8.453950925971515E-20</v>
       </c>
       <c r="I18">
-        <v>1.282872867381171E-20</v>
+        <v>7.214038123495691E-18</v>
       </c>
       <c r="J18">
-        <v>1.282872867381171E-19</v>
+        <v>8.65684574819483E-17</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -10792,22 +10792,22 @@
         <v>78</v>
       </c>
       <c r="E19">
-        <v>1.193002303366686</v>
+        <v>1.193152989150578</v>
       </c>
       <c r="F19">
-        <v>1.145398211076766</v>
+        <v>1.136564473249721</v>
       </c>
       <c r="G19">
-        <v>1.237774210025226</v>
+        <v>1.242218491822858</v>
       </c>
       <c r="H19">
-        <v>1.301374262413932E-17</v>
+        <v>2.608093129861475E-14</v>
       </c>
       <c r="I19">
-        <v>4.564820489698099E-16</v>
+        <v>1.669179603111344E-12</v>
       </c>
       <c r="J19">
-        <v>5.934266636607528E-15</v>
+        <v>2.67068736497815E-11</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -10905,19 +10905,19 @@
         <v>1.147086968886862</v>
       </c>
       <c r="F20">
-        <v>1.086319966598465</v>
+        <v>1.091818375738214</v>
       </c>
       <c r="G20">
-        <v>1.20331093289232</v>
+        <v>1.198976003695758</v>
       </c>
       <c r="H20">
-        <v>1.071864941610062E-08</v>
+        <v>5.800901540924873E-09</v>
       </c>
       <c r="I20">
-        <v>4.77212913134219E-07</v>
+        <v>2.700055989957759E-07</v>
       </c>
       <c r="J20">
-        <v>1.097589700208704E-05</v>
+        <v>5.94012317790707E-06</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -11012,22 +11012,22 @@
         <v>78</v>
       </c>
       <c r="E21">
-        <v>1.13213331814549</v>
+        <v>1.14486777411943</v>
       </c>
       <c r="F21">
-        <v>1.091579651033359</v>
+        <v>1.100861390390822</v>
       </c>
       <c r="G21">
-        <v>1.186884989104554</v>
+        <v>1.200588205569249</v>
       </c>
       <c r="H21">
-        <v>5.758572251991773E-09</v>
+        <v>3.775340526893301E-10</v>
       </c>
       <c r="I21">
-        <v>1.193594975867386E-07</v>
+        <v>1.840927952161305E-08</v>
       </c>
       <c r="J21">
-        <v>2.625908946908249E-06</v>
+        <v>3.86594869953874E-07</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -11125,19 +11125,19 @@
         <v>1.12931598997341</v>
       </c>
       <c r="F22">
-        <v>1.077285502178915</v>
+        <v>1.078926432788399</v>
       </c>
       <c r="G22">
-        <v>1.178542412593535</v>
+        <v>1.180483719849394</v>
       </c>
       <c r="H22">
-        <v>1.159045589845295E-07</v>
+        <v>5.884081973665992E-08</v>
       </c>
       <c r="I22">
-        <v>3.956208946671941E-06</v>
+        <v>2.231592570753324E-06</v>
       </c>
       <c r="J22">
-        <v>0.0001186862684001</v>
+        <v>6.025299941033975E-05</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -11235,19 +11235,19 @@
         <v>1.128524472187359</v>
       </c>
       <c r="F23">
-        <v>1.084050427975085</v>
+        <v>1.0848526800235</v>
       </c>
       <c r="G23">
-        <v>1.171666534638899</v>
+        <v>1.171475387812914</v>
       </c>
       <c r="H23">
-        <v>2.72624375032378E-08</v>
+        <v>3.781400140129427E-09</v>
       </c>
       <c r="I23">
-        <v>1.163197333471479E-06</v>
+        <v>1.936076871746267E-07</v>
       </c>
       <c r="J23">
-        <v>2.791673600331551E-05</v>
+        <v>3.872153743492533E-06</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -11342,22 +11342,22 @@
         <v>79</v>
       </c>
       <c r="E24">
-        <v>1.113503399178037</v>
+        <v>1.12422647409703</v>
       </c>
       <c r="F24">
-        <v>1.053409772582766</v>
+        <v>1.049357146398916</v>
       </c>
       <c r="G24">
-        <v>1.132530695822099</v>
+        <v>1.144499400243268</v>
       </c>
       <c r="H24">
-        <v>1.200305339289957E-11</v>
+        <v>7.849377891806963E-11</v>
       </c>
       <c r="I24">
-        <v>3.420870216976378E-10</v>
+        <v>4.018881480605165E-09</v>
       </c>
       <c r="J24">
-        <v>5.473392347162205E-09</v>
+        <v>8.03776296121033E-08</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -11440,34 +11440,34 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
         <v>79</v>
       </c>
       <c r="E25">
-        <v>1.102637812363954</v>
+        <v>1.107019655194476</v>
       </c>
       <c r="F25">
-        <v>1.019181609604443</v>
+        <v>1.029350091151324</v>
       </c>
       <c r="G25">
-        <v>1.123027872981164</v>
+        <v>1.126066154964953</v>
       </c>
       <c r="H25">
-        <v>4.035694638548454E-05</v>
+        <v>0.0001118360120968</v>
       </c>
       <c r="I25">
-        <v>0.0005111879875494</v>
+        <v>0.0020821832070402</v>
       </c>
       <c r="J25">
-        <v>0.0184027675517809</v>
+        <v>0.1145200763872117</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -11479,70 +11479,70 @@
         <v>23134</v>
       </c>
       <c r="N25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P25">
-        <v>18035</v>
+        <v>18036</v>
       </c>
       <c r="Q25">
-        <v>5091</v>
+        <v>5090</v>
       </c>
       <c r="R25">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="S25">
-        <v>0.7798581682954251</v>
+        <v>0.7799014096687711</v>
       </c>
       <c r="T25">
-        <v>0.0011771630370806</v>
+        <v>0.001373356876594</v>
       </c>
       <c r="U25">
-        <v>0.9998891168154348</v>
+        <v>0.9999445584077176</v>
       </c>
       <c r="V25">
-        <v>10.61624484990876</v>
+        <v>24.77123798312045</v>
       </c>
       <c r="W25">
-        <v>0.9989336019018672</v>
+        <v>0.9986820116443154</v>
       </c>
       <c r="X25">
-        <v>0.3589167857050852</v>
+        <v>0.4681786160314102</v>
       </c>
       <c r="Y25">
-        <v>0.941436390491302</v>
+        <v>0.9823511482631704</v>
       </c>
       <c r="Z25">
-        <v>0.7744714529157291</v>
+        <v>0.774515063483727</v>
       </c>
       <c r="AA25">
-        <v>0.7851519149313364</v>
+        <v>0.7851947727452679</v>
       </c>
       <c r="AB25">
-        <v>0.0005395173397244</v>
+        <v>0.0006653106255891</v>
       </c>
       <c r="AC25">
-        <v>0.0025664953358395</v>
+        <v>0.0028327940803876</v>
       </c>
       <c r="AD25">
-        <v>0.9995957274106018</v>
+        <v>0.9996859665607934</v>
       </c>
       <c r="AE25">
-        <v>0.999969593629191</v>
+        <v>0.9999902140499018</v>
       </c>
       <c r="AF25">
-        <v>2.143199482230734</v>
+        <v>3.048088423754173</v>
       </c>
       <c r="AG25">
-        <v>52.58710430253862</v>
+        <v>201.3111648712056</v>
       </c>
       <c r="AH25">
-        <v>0.9979801136845584</v>
+        <v>0.99765997031471</v>
       </c>
       <c r="AI25">
-        <v>0.9998880010990324</v>
+        <v>0.9997050999924544</v>
       </c>
       <c r="AJ25">
         <v>1</v>
@@ -11562,22 +11562,22 @@
         <v>79</v>
       </c>
       <c r="E26">
-        <v>1.101399610516287</v>
+        <v>1.10156021577733</v>
       </c>
       <c r="F26">
-        <v>1.057190049885674</v>
+        <v>1.054920573306049</v>
       </c>
       <c r="G26">
-        <v>1.14948024976713</v>
+        <v>1.15402276733613</v>
       </c>
       <c r="H26">
-        <v>4.263896893209232E-06</v>
+        <v>1.340521275494711E-05</v>
       </c>
       <c r="I26">
-        <v>6.076053072823155E-05</v>
+        <v>0.000319231113048</v>
       </c>
       <c r="J26">
-        <v>0.0019443369833034</v>
+        <v>0.0137269378610658</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -11660,109 +11660,109 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
         <v>79</v>
       </c>
       <c r="E27">
-        <v>1.094864815136445</v>
+        <v>1.098816489616126</v>
       </c>
       <c r="F27">
-        <v>1.07068202831742</v>
+        <v>1.038543794738381</v>
       </c>
       <c r="G27">
-        <v>1.107634624013793</v>
+        <v>1.165342155918197</v>
       </c>
       <c r="H27">
-        <v>4.734838022235927E-11</v>
+        <v>0.0004300413825547</v>
       </c>
       <c r="I27">
-        <v>1.270050669493872E-09</v>
+        <v>0.0060323613114532</v>
       </c>
       <c r="J27">
-        <v>2.159086138139582E-08</v>
+        <v>0.4403623757360881</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="M27">
         <v>23134</v>
       </c>
       <c r="N27">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="O27">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P27">
-        <v>18036</v>
+        <v>18028</v>
       </c>
       <c r="Q27">
-        <v>5090</v>
+        <v>5078</v>
       </c>
       <c r="R27">
-        <v>0.875</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="S27">
-        <v>0.7799014096687711</v>
+        <v>0.7802302432268675</v>
       </c>
       <c r="T27">
-        <v>0.001373356876594</v>
+        <v>0.0037276829507553</v>
       </c>
       <c r="U27">
-        <v>0.9999445584077176</v>
+        <v>0.9995010256694572</v>
       </c>
       <c r="V27">
-        <v>24.77123798312045</v>
+        <v>7.47069082030783</v>
       </c>
       <c r="W27">
-        <v>0.9986820116443154</v>
+        <v>0.9967696795327948</v>
       </c>
       <c r="X27">
-        <v>0.4681786160314102</v>
+        <v>0.4851010964027256</v>
       </c>
       <c r="Y27">
-        <v>0.9823511482631704</v>
+        <v>0.8254967652290206</v>
       </c>
       <c r="Z27">
-        <v>0.774515063483727</v>
+        <v>0.7748443577871422</v>
       </c>
       <c r="AA27">
-        <v>0.7851947727452679</v>
+        <v>0.7855229557461512</v>
       </c>
       <c r="AB27">
-        <v>0.0006653106255891</v>
+        <v>0.0023875422889791</v>
       </c>
       <c r="AC27">
-        <v>0.0028327940803876</v>
+        <v>0.0058156667819506</v>
       </c>
       <c r="AD27">
-        <v>0.9996859665607934</v>
+        <v>0.999051834557194</v>
       </c>
       <c r="AE27">
-        <v>0.9999902140499018</v>
+        <v>0.9997374694862832</v>
       </c>
       <c r="AF27">
-        <v>3.048088423754173</v>
+        <v>3.381953965933074</v>
       </c>
       <c r="AG27">
-        <v>201.3111648712056</v>
+        <v>16.50265553429361</v>
       </c>
       <c r="AH27">
-        <v>0.99765997031471</v>
+        <v>0.9950659367368844</v>
       </c>
       <c r="AI27">
-        <v>0.9997050999924544</v>
+        <v>0.9984763394615382</v>
       </c>
       <c r="AJ27">
         <v>1</v>
@@ -11782,22 +11782,22 @@
         <v>78</v>
       </c>
       <c r="E28">
-        <v>1.094782484005221</v>
+        <v>1.098246664814112</v>
       </c>
       <c r="F28">
-        <v>1.054517783349528</v>
+        <v>1.056745009139948</v>
       </c>
       <c r="G28">
-        <v>1.1388061155385</v>
+        <v>1.142381025907776</v>
       </c>
       <c r="H28">
-        <v>1.034286765653336E-05</v>
+        <v>5.11478600205214E-06</v>
       </c>
       <c r="I28">
-        <v>0.0001347527900394</v>
+        <v>0.0001342959196436</v>
       </c>
       <c r="J28">
-        <v>0.0047163476513792</v>
+        <v>0.0052375408661013</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -11895,19 +11895,19 @@
         <v>1.09414462164743</v>
       </c>
       <c r="F29">
-        <v>1.046391619755717</v>
+        <v>1.044842985648894</v>
       </c>
       <c r="G29">
-        <v>1.145314150212341</v>
+        <v>1.143946702486141</v>
       </c>
       <c r="H29">
-        <v>0.0001637358606828</v>
+        <v>0.0002179015337842</v>
       </c>
       <c r="I29">
-        <v>0.0024299350918724</v>
+        <v>0.0030990440360426</v>
       </c>
       <c r="J29">
-        <v>0.1676655213391975</v>
+        <v>0.223131170595074</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -12002,22 +12002,22 @@
         <v>79</v>
       </c>
       <c r="E30">
-        <v>1.093478763111872</v>
+        <v>1.090742134953653</v>
       </c>
       <c r="F30">
-        <v>1.054173269068689</v>
+        <v>1.044915884507025</v>
       </c>
       <c r="G30">
-        <v>1.146076704224168</v>
+        <v>1.145228705022176</v>
       </c>
       <c r="H30">
-        <v>1.025301725471704E-05</v>
+        <v>0.0001156986257222</v>
       </c>
       <c r="I30">
-        <v>0.0001375110549456</v>
+        <v>0.0020785156620971</v>
       </c>
       <c r="J30">
-        <v>0.0046753758681509</v>
+        <v>0.1184753927395353</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -12100,109 +12100,109 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
         <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
         <v>79</v>
       </c>
       <c r="E31">
-        <v>1.090599788107703</v>
+        <v>1.085630817407364</v>
       </c>
       <c r="F31">
-        <v>1.039756447594392</v>
+        <v>1.021158387877574</v>
       </c>
       <c r="G31">
-        <v>1.14139921385843</v>
+        <v>1.109168457046462</v>
       </c>
       <c r="H31">
-        <v>0.0001398627042935</v>
+        <v>0.0002569073627214</v>
       </c>
       <c r="I31">
-        <v>0.0012755478631574</v>
+        <v>0.0039264647675632</v>
       </c>
       <c r="J31">
-        <v>0.06377739315787399</v>
+        <v>0.2630731394267393</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="M31">
         <v>23134</v>
       </c>
       <c r="N31">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="O31">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P31">
-        <v>18028</v>
+        <v>18035</v>
       </c>
       <c r="Q31">
-        <v>5078</v>
+        <v>5091</v>
       </c>
       <c r="R31">
-        <v>0.6785714285714286</v>
+        <v>0.75</v>
       </c>
       <c r="S31">
-        <v>0.7802302432268675</v>
+        <v>0.7798581682954251</v>
       </c>
       <c r="T31">
-        <v>0.0037276829507553</v>
+        <v>0.0011771630370806</v>
       </c>
       <c r="U31">
-        <v>0.9995010256694572</v>
+        <v>0.9998891168154348</v>
       </c>
       <c r="V31">
-        <v>7.47069082030783</v>
+        <v>10.61624484990876</v>
       </c>
       <c r="W31">
-        <v>0.9967696795327948</v>
+        <v>0.9989336019018672</v>
       </c>
       <c r="X31">
-        <v>0.4851010964027256</v>
+        <v>0.3589167857050852</v>
       </c>
       <c r="Y31">
-        <v>0.8254967652290206</v>
+        <v>0.941436390491302</v>
       </c>
       <c r="Z31">
-        <v>0.7748443577871422</v>
+        <v>0.7744714529157291</v>
       </c>
       <c r="AA31">
-        <v>0.7855229557461512</v>
+        <v>0.7851519149313364</v>
       </c>
       <c r="AB31">
-        <v>0.0023875422889791</v>
+        <v>0.0005395173397244</v>
       </c>
       <c r="AC31">
-        <v>0.0058156667819506</v>
+        <v>0.0025664953358395</v>
       </c>
       <c r="AD31">
-        <v>0.999051834557194</v>
+        <v>0.9995957274106018</v>
       </c>
       <c r="AE31">
-        <v>0.9997374694862832</v>
+        <v>0.999969593629191</v>
       </c>
       <c r="AF31">
-        <v>3.381953965933074</v>
+        <v>2.143199482230734</v>
       </c>
       <c r="AG31">
-        <v>16.50265553429361</v>
+        <v>52.58710430253862</v>
       </c>
       <c r="AH31">
-        <v>0.9950659367368844</v>
+        <v>0.9979801136845584</v>
       </c>
       <c r="AI31">
-        <v>0.9984763394615382</v>
+        <v>0.9998880010990324</v>
       </c>
       <c r="AJ31">
         <v>1</v>
@@ -12222,22 +12222,22 @@
         <v>79</v>
       </c>
       <c r="E32">
-        <v>1.08241425461755</v>
+        <v>1.084142555763943</v>
       </c>
       <c r="F32">
-        <v>1.000048694783381</v>
+        <v>1.000038607483557</v>
       </c>
       <c r="G32">
-        <v>1.094515660977501</v>
+        <v>1.096847036300079</v>
       </c>
       <c r="H32">
-        <v>3.06213604731813E-06</v>
+        <v>2.344985813765586E-06</v>
       </c>
       <c r="I32">
-        <v>4.504303347022797E-05</v>
+        <v>6.860758495131315E-05</v>
       </c>
       <c r="J32">
-        <v>0.001396334037577</v>
+        <v>0.0024012654732959</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -12332,22 +12332,22 @@
         <v>79</v>
       </c>
       <c r="E33">
-        <v>1.079455273592504</v>
+        <v>1.077093218382879</v>
       </c>
       <c r="F33">
-        <v>1.038374968920464</v>
+        <v>1.037336747985486</v>
       </c>
       <c r="G33">
-        <v>1.135218756198663</v>
+        <v>1.1296236959743</v>
       </c>
       <c r="H33">
-        <v>0.0006314448552483</v>
+        <v>0.000727953225413</v>
       </c>
       <c r="I33">
-        <v>0.0051417652498791</v>
+        <v>0.009202766701517401</v>
       </c>
       <c r="J33">
-        <v>0.2879388539932339</v>
+        <v>0.7454241028229148</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -12442,22 +12442,22 @@
         <v>79</v>
       </c>
       <c r="E34">
-        <v>1.074612572601326</v>
+        <v>1.071951738093516</v>
       </c>
       <c r="F34">
-        <v>1.022608508841888</v>
+        <v>1.015430255523528</v>
       </c>
       <c r="G34">
-        <v>1.096577274014021</v>
+        <v>1.096426103262798</v>
       </c>
       <c r="H34">
-        <v>0.000315856449996</v>
+        <v>0.0004347745085077</v>
       </c>
       <c r="I34">
-        <v>0.0027175573810976</v>
+        <v>0.0060163391447558</v>
       </c>
       <c r="J34">
-        <v>0.144030541198177</v>
+        <v>0.4452090967119311</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -12540,34 +12540,34 @@
     </row>
     <row r="35" spans="1:36">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
         <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
         <v>79</v>
       </c>
       <c r="E35">
-        <v>1.040320605288846</v>
+        <v>1.036995477658249</v>
       </c>
       <c r="F35">
-        <v>1.000045445657604</v>
+        <v>1.000011403373904</v>
       </c>
       <c r="G35">
-        <v>1.052837077128465</v>
+        <v>1.047958206516711</v>
       </c>
       <c r="H35">
-        <v>0.0008400079073604</v>
+        <v>0.0003798531384813</v>
       </c>
       <c r="I35">
-        <v>0.0067200632588839</v>
+        <v>0.005051553426037</v>
       </c>
       <c r="J35">
-        <v>0.3830436057563871</v>
+        <v>0.3889696138048562</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -12642,51 +12642,48 @@
         <v>0.9997646847427044</v>
       </c>
       <c r="AJ35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:36">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
         <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E36">
-        <v>1.036995477658249</v>
+        <v>1.036176491673066</v>
       </c>
       <c r="F36">
-        <v>1.000013799128366</v>
+        <v>1.009656741297501</v>
       </c>
       <c r="G36">
-        <v>1.047754078285812</v>
+        <v>1.049015344355068</v>
       </c>
       <c r="H36">
-        <v>0.0002411235439637</v>
+        <v>8.221784714199745E-05</v>
       </c>
       <c r="I36">
-        <v>0.0032488224870909</v>
+        <v>0.0014031845912234</v>
       </c>
       <c r="J36">
-        <v>0.2469105090189144</v>
+        <v>0.08419107547340531</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M36">
         <v>23134</v>
       </c>
       <c r="N36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -12695,16 +12692,16 @@
         <v>18037</v>
       </c>
       <c r="Q36">
-        <v>5091</v>
+        <v>5089</v>
       </c>
       <c r="R36">
         <v>1</v>
       </c>
       <c r="S36">
-        <v>0.7798772051193359</v>
+        <v>0.7799446510421171</v>
       </c>
       <c r="T36">
-        <v>0.0011771630370806</v>
+        <v>0.0015695507161075</v>
       </c>
       <c r="U36">
         <v>1</v>
@@ -12713,25 +12710,25 @@
         <v>80</v>
       </c>
       <c r="W36">
-        <v>0.9988228369629194</v>
+        <v>0.9984304492838924</v>
       </c>
       <c r="X36">
-        <v>0.5005264873047524</v>
+        <v>0.6007063523927745</v>
       </c>
       <c r="Y36">
         <v>1</v>
       </c>
       <c r="Z36">
-        <v>0.7744908871853922</v>
+        <v>0.7745586741364118</v>
       </c>
       <c r="AA36">
-        <v>0.7851705560250215</v>
+        <v>0.7852376304745124</v>
       </c>
       <c r="AB36">
-        <v>0.0005395173397244</v>
+        <v>0.0007954139099644</v>
       </c>
       <c r="AC36">
-        <v>0.0025664953358395</v>
+        <v>0.003094782826425</v>
       </c>
       <c r="AD36">
         <v>0.9997870401815973</v>
@@ -12743,10 +12740,10 @@
         <v>80</v>
       </c>
       <c r="AH36">
-        <v>0.9978818764691668</v>
+        <v>0.9973442144334972</v>
       </c>
       <c r="AI36">
-        <v>0.9997646847427044</v>
+        <v>0.9995178671823598</v>
       </c>
       <c r="AJ36">
         <v>0</v>
@@ -12754,43 +12751,43 @@
     </row>
     <row r="37" spans="1:36">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
         <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E37">
-        <v>1.036176491673066</v>
+        <v>1.03609606234</v>
       </c>
       <c r="F37">
-        <v>1.008981368183627</v>
+        <v>1.000011623584984</v>
       </c>
       <c r="G37">
-        <v>1.048909378406188</v>
+        <v>1.048879556107011</v>
       </c>
       <c r="H37">
-        <v>6.057033635539783E-05</v>
+        <v>0.0003503571667756</v>
       </c>
       <c r="I37">
-        <v>0.0010167872857037</v>
+        <v>0.0047206018260298</v>
       </c>
       <c r="J37">
-        <v>0.0620240244279273</v>
+        <v>0.3587657387782717</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M37">
         <v>23134</v>
       </c>
       <c r="N37">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -12799,16 +12796,16 @@
         <v>18037</v>
       </c>
       <c r="Q37">
-        <v>5089</v>
+        <v>5091</v>
       </c>
       <c r="R37">
         <v>1</v>
       </c>
       <c r="S37">
-        <v>0.7799446510421171</v>
+        <v>0.7798772051193359</v>
       </c>
       <c r="T37">
-        <v>0.0015695507161075</v>
+        <v>0.0011771630370806</v>
       </c>
       <c r="U37">
         <v>1</v>
@@ -12817,25 +12814,25 @@
         <v>80</v>
       </c>
       <c r="W37">
-        <v>0.9984304492838924</v>
+        <v>0.9988228369629194</v>
       </c>
       <c r="X37">
-        <v>0.6007063523927745</v>
+        <v>0.5005264873047524</v>
       </c>
       <c r="Y37">
         <v>1</v>
       </c>
       <c r="Z37">
-        <v>0.7745586741364118</v>
+        <v>0.7744908871853922</v>
       </c>
       <c r="AA37">
-        <v>0.7852376304745124</v>
+        <v>0.7851705560250215</v>
       </c>
       <c r="AB37">
-        <v>0.0007954139099644</v>
+        <v>0.0005395173397244</v>
       </c>
       <c r="AC37">
-        <v>0.003094782826425</v>
+        <v>0.0025664953358395</v>
       </c>
       <c r="AD37">
         <v>0.9997870401815973</v>
@@ -12847,10 +12844,10 @@
         <v>80</v>
       </c>
       <c r="AH37">
-        <v>0.9973442144334972</v>
+        <v>0.9978818764691668</v>
       </c>
       <c r="AI37">
-        <v>0.9995178671823598</v>
+        <v>0.9997646847427044</v>
       </c>
       <c r="AJ37">
         <v>0</v>
@@ -12867,22 +12864,22 @@
         <v>86</v>
       </c>
       <c r="E38">
-        <v>1.03609606234</v>
+        <v>1.035687700135012</v>
       </c>
       <c r="F38">
-        <v>1.000014437621363</v>
+        <v>1.000033251058264</v>
       </c>
       <c r="G38">
-        <v>1.048319961587499</v>
+        <v>1.047565438542887</v>
       </c>
       <c r="H38">
-        <v>0.0002100155909406</v>
+        <v>0.0001543720972334</v>
       </c>
       <c r="I38">
-        <v>0.0029868884044899</v>
+        <v>0.0025914266814277</v>
       </c>
       <c r="J38">
-        <v>0.2150559651232761</v>
+        <v>0.1580770275670946</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -12957,48 +12954,48 @@
         <v>0.9997646847427044</v>
       </c>
       <c r="AJ38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:36">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
         <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E39">
-        <v>1.035079694944045</v>
+        <v>1.035231171915742</v>
       </c>
       <c r="F39">
-        <v>1.000014795480155</v>
+        <v>1.011619650067777</v>
       </c>
       <c r="G39">
-        <v>1.044625592655112</v>
+        <v>1.049799366993362</v>
       </c>
       <c r="H39">
-        <v>5.658134536680119E-05</v>
+        <v>0.0001152891982951</v>
       </c>
       <c r="I39">
-        <v>0.0009820219941627001</v>
+        <v>0.0021081453402543</v>
       </c>
       <c r="J39">
-        <v>0.0579392976556044</v>
+        <v>0.1180561390542419</v>
       </c>
       <c r="K39">
         <v>1</v>
       </c>
       <c r="L39">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M39">
         <v>23134</v>
       </c>
       <c r="N39">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -13007,16 +13004,16 @@
         <v>18037</v>
       </c>
       <c r="Q39">
-        <v>5091</v>
+        <v>5089</v>
       </c>
       <c r="R39">
         <v>1</v>
       </c>
       <c r="S39">
-        <v>0.7798772051193359</v>
+        <v>0.7799446510421171</v>
       </c>
       <c r="T39">
-        <v>0.0011771630370806</v>
+        <v>0.0015695507161075</v>
       </c>
       <c r="U39">
         <v>1</v>
@@ -13025,25 +13022,25 @@
         <v>80</v>
       </c>
       <c r="W39">
-        <v>0.9988228369629194</v>
+        <v>0.9984304492838924</v>
       </c>
       <c r="X39">
-        <v>0.5005264873047524</v>
+        <v>0.6007063523927745</v>
       </c>
       <c r="Y39">
         <v>1</v>
       </c>
       <c r="Z39">
-        <v>0.7744908871853922</v>
+        <v>0.7745586741364118</v>
       </c>
       <c r="AA39">
-        <v>0.7851705560250215</v>
+        <v>0.7852376304745124</v>
       </c>
       <c r="AB39">
-        <v>0.0005395173397244</v>
+        <v>0.0007954139099644</v>
       </c>
       <c r="AC39">
-        <v>0.0025664953358395</v>
+        <v>0.003094782826425</v>
       </c>
       <c r="AD39">
         <v>0.9997870401815973</v>
@@ -13055,45 +13052,42 @@
         <v>80</v>
       </c>
       <c r="AH39">
-        <v>0.9978818764691668</v>
+        <v>0.9973442144334972</v>
       </c>
       <c r="AI39">
-        <v>0.9997646847427044</v>
+        <v>0.9995178671823598</v>
       </c>
       <c r="AJ39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:36">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
         <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E40">
-        <v>1.032848783352244</v>
+        <v>1.035079694944045</v>
       </c>
       <c r="F40">
-        <v>1.000044090021232</v>
+        <v>1.000012476913915</v>
       </c>
       <c r="G40">
-        <v>1.042953234704619</v>
+        <v>1.044987895081671</v>
       </c>
       <c r="H40">
-        <v>0.0001321787052164</v>
+        <v>9.884563732954241E-05</v>
       </c>
       <c r="I40">
-        <v>0.0012824146718873</v>
+        <v>0.0016066338511976</v>
       </c>
       <c r="J40">
-        <v>0.060273489578707</v>
+        <v>0.1012179326254514</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -13168,36 +13162,39 @@
         <v>0.9997646847427044</v>
       </c>
       <c r="AJ40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:36">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
         <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>76</v>
+      </c>
+      <c r="D41" t="s">
+        <v>79</v>
       </c>
       <c r="E41">
-        <v>1.029226163189463</v>
+        <v>1.033825834236115</v>
       </c>
       <c r="F41">
-        <v>1.000013783397259</v>
+        <v>1.000035499936593</v>
       </c>
       <c r="G41">
-        <v>1.040093500598524</v>
+        <v>1.044263703931762</v>
       </c>
       <c r="H41">
-        <v>0.0005543734595902</v>
+        <v>7.573783760576271E-05</v>
       </c>
       <c r="I41">
-        <v>0.0066009118909356</v>
+        <v>0.001551110914166</v>
       </c>
       <c r="J41">
-        <v>0.5676784226204662</v>
+        <v>0.077555545708301</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -13272,6 +13269,318 @@
         <v>0.9997646847427044</v>
       </c>
       <c r="AJ41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42">
+        <v>1.033423601100335</v>
+      </c>
+      <c r="F42">
+        <v>1.000033848949616</v>
+      </c>
+      <c r="G42">
+        <v>1.046020494990129</v>
+      </c>
+      <c r="H42">
+        <v>0.0003908541468114</v>
+      </c>
+      <c r="I42">
+        <v>0.0055588145324297</v>
+      </c>
+      <c r="J42">
+        <v>0.400234646334943</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>6</v>
+      </c>
+      <c r="M42">
+        <v>23134</v>
+      </c>
+      <c r="N42">
+        <v>6</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>18037</v>
+      </c>
+      <c r="Q42">
+        <v>5091</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>0.7798772051193359</v>
+      </c>
+      <c r="T42">
+        <v>0.0011771630370806</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42" t="s">
+        <v>80</v>
+      </c>
+      <c r="W42">
+        <v>0.9988228369629194</v>
+      </c>
+      <c r="X42">
+        <v>0.5005264873047524</v>
+      </c>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+      <c r="Z42">
+        <v>0.7744908871853922</v>
+      </c>
+      <c r="AA42">
+        <v>0.7851705560250215</v>
+      </c>
+      <c r="AB42">
+        <v>0.0005395173397244</v>
+      </c>
+      <c r="AC42">
+        <v>0.0025664953358395</v>
+      </c>
+      <c r="AD42">
+        <v>0.9997870401815973</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH42">
+        <v>0.9978818764691668</v>
+      </c>
+      <c r="AI42">
+        <v>0.9997646847427044</v>
+      </c>
+      <c r="AJ42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43">
+        <v>1.032615420204394</v>
+      </c>
+      <c r="F43">
+        <v>1.000036184842633</v>
+      </c>
+      <c r="G43">
+        <v>1.042329424647244</v>
+      </c>
+      <c r="H43">
+        <v>0.0001666470086972</v>
+      </c>
+      <c r="I43">
+        <v>0.0027523634984837</v>
+      </c>
+      <c r="J43">
+        <v>0.1706465369059919</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>6</v>
+      </c>
+      <c r="M43">
+        <v>23134</v>
+      </c>
+      <c r="N43">
+        <v>6</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>18037</v>
+      </c>
+      <c r="Q43">
+        <v>5091</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>0.7798772051193359</v>
+      </c>
+      <c r="T43">
+        <v>0.0011771630370806</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43" t="s">
+        <v>80</v>
+      </c>
+      <c r="W43">
+        <v>0.9988228369629194</v>
+      </c>
+      <c r="X43">
+        <v>0.5005264873047524</v>
+      </c>
+      <c r="Y43">
+        <v>1</v>
+      </c>
+      <c r="Z43">
+        <v>0.7744908871853922</v>
+      </c>
+      <c r="AA43">
+        <v>0.7851705560250215</v>
+      </c>
+      <c r="AB43">
+        <v>0.0005395173397244</v>
+      </c>
+      <c r="AC43">
+        <v>0.0025664953358395</v>
+      </c>
+      <c r="AD43">
+        <v>0.9997870401815973</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH43">
+        <v>0.9978818764691668</v>
+      </c>
+      <c r="AI43">
+        <v>0.9997646847427044</v>
+      </c>
+      <c r="AJ43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44">
+        <v>1.029226163189463</v>
+      </c>
+      <c r="F44">
+        <v>1.000012476913915</v>
+      </c>
+      <c r="G44">
+        <v>1.040331779968939</v>
+      </c>
+      <c r="H44">
+        <v>0.0006541328478365999</v>
+      </c>
+      <c r="I44">
+        <v>0.0078803768962903</v>
+      </c>
+      <c r="J44">
+        <v>0.6698320361846811</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>6</v>
+      </c>
+      <c r="M44">
+        <v>23134</v>
+      </c>
+      <c r="N44">
+        <v>6</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>18037</v>
+      </c>
+      <c r="Q44">
+        <v>5091</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>0.7798772051193359</v>
+      </c>
+      <c r="T44">
+        <v>0.0011771630370806</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="V44" t="s">
+        <v>80</v>
+      </c>
+      <c r="W44">
+        <v>0.9988228369629194</v>
+      </c>
+      <c r="X44">
+        <v>0.5005264873047524</v>
+      </c>
+      <c r="Y44">
+        <v>1</v>
+      </c>
+      <c r="Z44">
+        <v>0.7744908871853922</v>
+      </c>
+      <c r="AA44">
+        <v>0.7851705560250215</v>
+      </c>
+      <c r="AB44">
+        <v>0.0005395173397244</v>
+      </c>
+      <c r="AC44">
+        <v>0.0025664953358395</v>
+      </c>
+      <c r="AD44">
+        <v>0.9997870401815973</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH44">
+        <v>0.9978818764691668</v>
+      </c>
+      <c r="AI44">
+        <v>0.9997646847427044</v>
+      </c>
+      <c r="AJ44">
         <v>0</v>
       </c>
     </row>
@@ -13282,7 +13591,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ41"/>
+  <dimension ref="A1:AJ43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13415,10 +13724,10 @@
         <v>3.694240307870825</v>
       </c>
       <c r="F2">
-        <v>3.54175313658296</v>
+        <v>3.535530072263748</v>
       </c>
       <c r="G2">
-        <v>3.908438695474807</v>
+        <v>3.897857677390127</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -13522,13 +13831,13 @@
         <v>77</v>
       </c>
       <c r="E3">
-        <v>2.85377662105881</v>
+        <v>2.901859107845182</v>
       </c>
       <c r="F3">
-        <v>2.737157671575275</v>
+        <v>2.764153859991485</v>
       </c>
       <c r="G3">
-        <v>2.984894213658865</v>
+        <v>3.036560300254892</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -13635,10 +13944,10 @@
         <v>2.72898159601425</v>
       </c>
       <c r="F4">
-        <v>2.626655964814008</v>
+        <v>2.62235952127138</v>
       </c>
       <c r="G4">
-        <v>2.873665188501128</v>
+        <v>2.87523635850872</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -13742,22 +14051,22 @@
         <v>77</v>
       </c>
       <c r="E5">
-        <v>2.260118403095446</v>
+        <v>2.265495135665157</v>
       </c>
       <c r="F5">
-        <v>2.172672192528811</v>
+        <v>2.176949107348088</v>
       </c>
       <c r="G5">
-        <v>2.357491368026489</v>
+        <v>2.381451768873837</v>
       </c>
       <c r="H5">
-        <v>8.416204358350212E-301</v>
+        <v>1.389002934627336E-248</v>
       </c>
       <c r="I5">
-        <v>1.918894593703848E-298</v>
+        <v>7.63951614045035E-246</v>
       </c>
       <c r="J5">
-        <v>3.837789187407696E-298</v>
+        <v>1.52790322809007E-245</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -13855,19 +14164,19 @@
         <v>1.860658424162458</v>
       </c>
       <c r="F6">
-        <v>1.789337642983757</v>
+        <v>1.788992953345983</v>
       </c>
       <c r="G6">
-        <v>1.941577095689884</v>
+        <v>1.94433066116612</v>
       </c>
       <c r="H6">
-        <v>2.251421856656021E-188</v>
+        <v>3.572464158707416E-180</v>
       </c>
       <c r="I6">
-        <v>1.238282021160811E-185</v>
+        <v>1.964855287289078E-177</v>
       </c>
       <c r="J6">
-        <v>2.476564042321623E-185</v>
+        <v>3.929710574578157E-177</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -13965,19 +14274,19 @@
         <v>1.672014806882104</v>
       </c>
       <c r="F7">
-        <v>1.598697020598154</v>
+        <v>1.595280576960716</v>
       </c>
       <c r="G7">
-        <v>1.751835693101848</v>
+        <v>1.753058646904024</v>
       </c>
       <c r="H7">
-        <v>2.18078011365891E-110</v>
+        <v>1.830855017583809E-97</v>
       </c>
       <c r="I7">
-        <v>5.997145312562002E-108</v>
+        <v>5.034851298355475E-95</v>
       </c>
       <c r="J7">
-        <v>2.398858125024801E-107</v>
+        <v>2.01394051934219E-94</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -14072,22 +14381,22 @@
         <v>77</v>
       </c>
       <c r="E8">
-        <v>1.634545914497247</v>
+        <v>1.666131484486873</v>
       </c>
       <c r="F8">
-        <v>1.569384206451026</v>
+        <v>1.600009767884919</v>
       </c>
       <c r="G8">
-        <v>1.703798498839464</v>
+        <v>1.745014405242614</v>
       </c>
       <c r="H8">
-        <v>8.165370501833648E-115</v>
+        <v>6.8217080297044E-110</v>
       </c>
       <c r="I8">
-        <v>1.241136316278715E-112</v>
+        <v>2.501292944224946E-107</v>
       </c>
       <c r="J8">
-        <v>3.723408948836144E-112</v>
+        <v>7.503878832674839E-107</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -14185,19 +14494,19 @@
         <v>1.57265541818324</v>
       </c>
       <c r="F9">
-        <v>1.517160783101339</v>
+        <v>1.517592063744489</v>
       </c>
       <c r="G9">
-        <v>1.633090318641239</v>
+        <v>1.62676842017032</v>
       </c>
       <c r="H9">
-        <v>3.937442968642002E-129</v>
+        <v>1.618200975035004E-138</v>
       </c>
       <c r="I9">
-        <v>1.443729088502067E-126</v>
+        <v>5.933403575128346E-136</v>
       </c>
       <c r="J9">
-        <v>4.331187265506202E-126</v>
+        <v>1.780021072538504E-135</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -14280,222 +14589,222 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
         <v>77</v>
       </c>
       <c r="E10">
-        <v>1.534544971307001</v>
+        <v>1.542232396585121</v>
       </c>
       <c r="F10">
-        <v>1.486698065753169</v>
+        <v>1.477295058610665</v>
       </c>
       <c r="G10">
-        <v>1.605253616715822</v>
+        <v>1.624005509297885</v>
       </c>
       <c r="H10">
-        <v>2.574402571210925E-100</v>
+        <v>5.764082500559206E-71</v>
       </c>
       <c r="I10">
-        <v>5.663685656664036E-98</v>
+        <v>1.268098150123025E-68</v>
       </c>
       <c r="J10">
-        <v>2.831842828332018E-97</v>
+        <v>6.340490750615126E-68</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>206</v>
+        <v>340</v>
       </c>
       <c r="M10">
         <v>23134</v>
       </c>
       <c r="N10">
-        <v>178</v>
+        <v>280</v>
       </c>
       <c r="O10">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="P10">
-        <v>18009</v>
+        <v>17977</v>
       </c>
       <c r="Q10">
-        <v>4919</v>
+        <v>4817</v>
       </c>
       <c r="R10">
-        <v>0.8640776699029126</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="S10">
-        <v>0.7854588276343336</v>
+        <v>0.7886724576642976</v>
       </c>
       <c r="T10">
-        <v>0.0349225034333921</v>
+        <v>0.054934275063763</v>
       </c>
       <c r="U10">
-        <v>0.9984476354160892</v>
+        <v>0.996673504463048</v>
       </c>
       <c r="V10">
-        <v>22.49632837243216</v>
+        <v>16.51415865541804</v>
       </c>
       <c r="W10">
-        <v>0.9665779779872232</v>
+        <v>0.9482199744492912</v>
       </c>
       <c r="X10">
-        <v>0.8102126823112078</v>
+        <v>0.7792890617329601</v>
       </c>
       <c r="Y10">
-        <v>0.9044576053477148</v>
+        <v>0.8604895437896319</v>
       </c>
       <c r="Z10">
-        <v>0.7800974363629922</v>
+        <v>0.783323895127681</v>
       </c>
       <c r="AA10">
-        <v>0.7907245707564137</v>
+        <v>0.7939237266814204</v>
       </c>
       <c r="AB10">
-        <v>0.0302215238388164</v>
+        <v>0.0490062699826948</v>
       </c>
       <c r="AC10">
-        <v>0.0403243180677418</v>
+        <v>0.0615329590259647</v>
       </c>
       <c r="AD10">
-        <v>0.9977572380691722</v>
+        <v>0.9957208321589078</v>
       </c>
       <c r="AE10">
-        <v>0.9989257341271632</v>
+        <v>0.9974146337685568</v>
       </c>
       <c r="AF10">
-        <v>15.12091428151686</v>
+        <v>12.51736265393956</v>
       </c>
       <c r="AG10">
-        <v>33.46919245874648</v>
+        <v>21.78713229263889</v>
       </c>
       <c r="AH10">
-        <v>0.961512712811716</v>
+        <v>0.9419138835250672</v>
       </c>
       <c r="AI10">
-        <v>0.9716699270650404</v>
+        <v>0.954568284501442</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:36">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
         <v>77</v>
       </c>
       <c r="E11">
-        <v>1.512417050693439</v>
+        <v>1.534544971307001</v>
       </c>
       <c r="F11">
-        <v>1.462717592848501</v>
+        <v>1.483053597204451</v>
       </c>
       <c r="G11">
-        <v>1.585514362669483</v>
+        <v>1.60638938145141</v>
       </c>
       <c r="H11">
-        <v>6.056969902597232E-81</v>
+        <v>2.806939181861172E-97</v>
       </c>
       <c r="I11">
-        <v>6.904945688960845E-79</v>
+        <v>6.175266200094578E-95</v>
       </c>
       <c r="J11">
-        <v>2.761978275584338E-78</v>
+        <v>3.087633100047289E-94</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>340</v>
+        <v>206</v>
       </c>
       <c r="M11">
         <v>23134</v>
       </c>
       <c r="N11">
-        <v>280</v>
+        <v>178</v>
       </c>
       <c r="O11">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="P11">
-        <v>17977</v>
+        <v>18009</v>
       </c>
       <c r="Q11">
-        <v>4817</v>
+        <v>4919</v>
       </c>
       <c r="R11">
-        <v>0.8235294117647058</v>
+        <v>0.8640776699029126</v>
       </c>
       <c r="S11">
-        <v>0.7886724576642976</v>
+        <v>0.7854588276343336</v>
       </c>
       <c r="T11">
-        <v>0.054934275063763</v>
+        <v>0.0349225034333921</v>
       </c>
       <c r="U11">
-        <v>0.996673504463048</v>
+        <v>0.9984476354160892</v>
       </c>
       <c r="V11">
-        <v>16.51415865541804</v>
+        <v>22.49632837243216</v>
       </c>
       <c r="W11">
-        <v>0.9482199744492912</v>
+        <v>0.9665779779872232</v>
       </c>
       <c r="X11">
-        <v>0.7792890617329601</v>
+        <v>0.8102126823112078</v>
       </c>
       <c r="Y11">
-        <v>0.8604895437896319</v>
+        <v>0.9044576053477148</v>
       </c>
       <c r="Z11">
-        <v>0.783323895127681</v>
+        <v>0.7800974363629922</v>
       </c>
       <c r="AA11">
-        <v>0.7939237266814204</v>
+        <v>0.7907245707564137</v>
       </c>
       <c r="AB11">
-        <v>0.0490062699826948</v>
+        <v>0.0302215238388164</v>
       </c>
       <c r="AC11">
-        <v>0.0615329590259647</v>
+        <v>0.0403243180677418</v>
       </c>
       <c r="AD11">
-        <v>0.9957208321589078</v>
+        <v>0.9977572380691722</v>
       </c>
       <c r="AE11">
-        <v>0.9974146337685568</v>
+        <v>0.9989257341271632</v>
       </c>
       <c r="AF11">
-        <v>12.51736265393956</v>
+        <v>15.12091428151686</v>
       </c>
       <c r="AG11">
-        <v>21.78713229263889</v>
+        <v>33.46919245874648</v>
       </c>
       <c r="AH11">
-        <v>0.9419138835250672</v>
+        <v>0.961512712811716</v>
       </c>
       <c r="AI11">
-        <v>0.954568284501442</v>
+        <v>0.9716699270650404</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -14512,22 +14821,22 @@
         <v>77</v>
       </c>
       <c r="E12">
-        <v>1.444488890960278</v>
+        <v>1.463811416349054</v>
       </c>
       <c r="F12">
-        <v>1.389221343405079</v>
+        <v>1.407739170562675</v>
       </c>
       <c r="G12">
-        <v>1.505415159216896</v>
+        <v>1.515149082195186</v>
       </c>
       <c r="H12">
-        <v>1.022192025773122E-72</v>
+        <v>1.131195237041291E-87</v>
       </c>
       <c r="I12">
-        <v>7.768659395875724E-71</v>
+        <v>3.110786901863551E-85</v>
       </c>
       <c r="J12">
-        <v>4.661195637525434E-70</v>
+        <v>1.24431476074542E-84</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -14622,22 +14931,22 @@
         <v>77</v>
       </c>
       <c r="E13">
-        <v>1.425153802431691</v>
+        <v>1.427539141633341</v>
       </c>
       <c r="F13">
-        <v>1.376271484298985</v>
+        <v>1.379014405767528</v>
       </c>
       <c r="G13">
-        <v>1.492137322417946</v>
+        <v>1.497200871286817</v>
       </c>
       <c r="H13">
-        <v>2.680552532136637E-63</v>
+        <v>1.982203208273552E-62</v>
       </c>
       <c r="I13">
-        <v>1.746188506649009E-61</v>
+        <v>3.114890755858438E-60</v>
       </c>
       <c r="J13">
-        <v>1.222331954654306E-60</v>
+        <v>2.180423529100908E-59</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -14735,19 +15044,19 @@
         <v>1.397088452106252</v>
       </c>
       <c r="F14">
-        <v>1.350442295474762</v>
+        <v>1.350202447015246</v>
       </c>
       <c r="G14">
-        <v>1.454628358356996</v>
+        <v>1.454087949526213</v>
       </c>
       <c r="H14">
-        <v>7.05888753937608E-68</v>
+        <v>1.931736031708947E-71</v>
       </c>
       <c r="I14">
-        <v>1.10925375618767E-65</v>
+        <v>3.035585192685488E-69</v>
       </c>
       <c r="J14">
-        <v>7.764776293313691E-65</v>
+        <v>2.124909634879842E-68</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -14842,22 +15151,22 @@
         <v>77</v>
       </c>
       <c r="E15">
-        <v>1.300902217261472</v>
+        <v>1.311199316062483</v>
       </c>
       <c r="F15">
-        <v>1.256245822913881</v>
+        <v>1.264711741909197</v>
       </c>
       <c r="G15">
-        <v>1.36369550619694</v>
+        <v>1.371870415064346</v>
       </c>
       <c r="H15">
-        <v>1.114275206985253E-35</v>
+        <v>2.378743022001074E-38</v>
       </c>
       <c r="I15">
-        <v>6.351368679815942E-34</v>
+        <v>3.270771655251477E-36</v>
       </c>
       <c r="J15">
-        <v>5.081094943852754E-33</v>
+        <v>2.616617324201181E-35</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -14955,19 +15264,19 @@
         <v>1.254107589831471</v>
       </c>
       <c r="F16">
-        <v>1.199478170791308</v>
+        <v>1.198882768356209</v>
       </c>
       <c r="G16">
-        <v>1.303479528784759</v>
+        <v>1.297238397372146</v>
       </c>
       <c r="H16">
-        <v>3.456885593341261E-27</v>
+        <v>2.444652090396689E-28</v>
       </c>
       <c r="I16">
-        <v>4.225082391861541E-25</v>
+        <v>2.987908110484841E-26</v>
       </c>
       <c r="J16">
-        <v>3.802574152675387E-24</v>
+        <v>2.689117299436358E-25</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -15065,19 +15374,19 @@
         <v>1.244664053293129</v>
       </c>
       <c r="F17">
-        <v>1.201055594403487</v>
+        <v>1.204286870924066</v>
       </c>
       <c r="G17">
-        <v>1.287204688250815</v>
+        <v>1.287238346597432</v>
       </c>
       <c r="H17">
-        <v>3.224375741559107E-34</v>
+        <v>5.709971644542484E-36</v>
       </c>
       <c r="I17">
-        <v>4.433516644643772E-32</v>
+        <v>7.851211011245916E-34</v>
       </c>
       <c r="J17">
-        <v>3.546813315715018E-31</v>
+        <v>6.280968808996733E-33</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -15172,22 +15481,22 @@
         <v>77</v>
       </c>
       <c r="E18">
-        <v>1.205348406269189</v>
+        <v>1.193909116831062</v>
       </c>
       <c r="F18">
-        <v>1.16227104633051</v>
+        <v>1.148236091249487</v>
       </c>
       <c r="G18">
-        <v>1.246270303219367</v>
+        <v>1.23933150812417</v>
       </c>
       <c r="H18">
-        <v>2.813317691625374E-22</v>
+        <v>1.222124105098501E-18</v>
       </c>
       <c r="I18">
-        <v>1.282872867381171E-20</v>
+        <v>1.120280429673626E-16</v>
       </c>
       <c r="J18">
-        <v>1.282872867381171E-19</v>
+        <v>1.344336515608351E-15</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -15282,22 +15591,22 @@
         <v>78</v>
       </c>
       <c r="E19">
-        <v>1.193002303366686</v>
+        <v>1.193857539651574</v>
       </c>
       <c r="F19">
-        <v>1.145398211076766</v>
+        <v>1.139764179643248</v>
       </c>
       <c r="G19">
-        <v>1.237774210025226</v>
+        <v>1.241965353346044</v>
       </c>
       <c r="H19">
-        <v>1.301374262413932E-17</v>
+        <v>1.191596108990385E-14</v>
       </c>
       <c r="I19">
-        <v>4.564820489698099E-16</v>
+        <v>8.1922232493089E-13</v>
       </c>
       <c r="J19">
-        <v>5.934266636607528E-15</v>
+        <v>1.310755719889424E-11</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -15395,19 +15704,19 @@
         <v>1.146907396219958</v>
       </c>
       <c r="F20">
-        <v>1.089250144732615</v>
+        <v>1.089959652449224</v>
       </c>
       <c r="G20">
-        <v>1.203357284700334</v>
+        <v>1.196392962879166</v>
       </c>
       <c r="H20">
-        <v>3.435378416846842E-08</v>
+        <v>3.609267157702754E-09</v>
       </c>
       <c r="I20">
-        <v>1.399598614270936E-06</v>
+        <v>1.890568511177633E-07</v>
       </c>
       <c r="J20">
-        <v>3.778916258531527E-05</v>
+        <v>3.97019387347303E-06</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -15502,22 +15811,22 @@
         <v>78</v>
       </c>
       <c r="E21">
-        <v>1.13213331814549</v>
+        <v>1.144927896580722</v>
       </c>
       <c r="F21">
-        <v>1.091579651033359</v>
+        <v>1.099948801840632</v>
       </c>
       <c r="G21">
-        <v>1.186884989104554</v>
+        <v>1.206609689132259</v>
       </c>
       <c r="H21">
-        <v>5.758572251991773E-09</v>
+        <v>1.014093672717843E-09</v>
       </c>
       <c r="I21">
-        <v>1.193594975867386E-07</v>
+        <v>4.850013217346206E-08</v>
       </c>
       <c r="J21">
-        <v>2.625908946908249E-06</v>
+        <v>1.115503039989627E-06</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -15615,19 +15924,19 @@
         <v>1.129234233667583</v>
       </c>
       <c r="F22">
-        <v>1.07682572731553</v>
+        <v>1.078737490732185</v>
       </c>
       <c r="G22">
-        <v>1.181151574186049</v>
+        <v>1.181422082166437</v>
       </c>
       <c r="H22">
-        <v>1.198380702551111E-06</v>
+        <v>3.341887826410081E-07</v>
       </c>
       <c r="I22">
-        <v>3.380048135400569E-05</v>
+        <v>9.935342186624565E-06</v>
       </c>
       <c r="J22">
-        <v>0.0013182187728062</v>
+        <v>0.0003676076609051</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -15725,19 +16034,19 @@
         <v>1.128401508455648</v>
       </c>
       <c r="F23">
-        <v>1.081826522830221</v>
+        <v>1.082822878860212</v>
       </c>
       <c r="G23">
-        <v>1.16920640522786</v>
+        <v>1.169711476672433</v>
       </c>
       <c r="H23">
-        <v>2.094033770014735E-08</v>
+        <v>1.039654342038763E-07</v>
       </c>
       <c r="I23">
-        <v>9.213748588064836E-07</v>
+        <v>3.689096052395609E-06</v>
       </c>
       <c r="J23">
-        <v>2.303437147016209E-05</v>
+        <v>0.0001143619776242</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -15832,22 +16141,22 @@
         <v>79</v>
       </c>
       <c r="E24">
-        <v>1.113503399178037</v>
+        <v>1.124362846782476</v>
       </c>
       <c r="F24">
-        <v>1.053409772582766</v>
+        <v>1.045848219349619</v>
       </c>
       <c r="G24">
-        <v>1.132530695822099</v>
+        <v>1.14407538130089</v>
       </c>
       <c r="H24">
-        <v>1.200305339289957E-11</v>
+        <v>9.15813969928127E-10</v>
       </c>
       <c r="I24">
-        <v>3.420870216976378E-10</v>
+        <v>4.579069849640635E-08</v>
       </c>
       <c r="J24">
-        <v>5.473392347162205E-09</v>
+        <v>1.00739536692094E-06</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -15930,34 +16239,34 @@
     </row>
     <row r="25" spans="1:36">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
         <v>79</v>
       </c>
       <c r="E25">
-        <v>1.102637812363954</v>
+        <v>1.103158439402517</v>
       </c>
       <c r="F25">
-        <v>1.019181609604443</v>
+        <v>1.02929959503188</v>
       </c>
       <c r="G25">
-        <v>1.123027872981164</v>
+        <v>1.120488652678212</v>
       </c>
       <c r="H25">
-        <v>4.035694638548454E-05</v>
+        <v>3.907999718711083E-05</v>
       </c>
       <c r="I25">
-        <v>0.0005111879875494</v>
+        <v>0.0009146382320386999</v>
       </c>
       <c r="J25">
-        <v>0.0184027675517809</v>
+        <v>0.0429879969058219</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -15969,70 +16278,70 @@
         <v>23134</v>
       </c>
       <c r="N25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P25">
-        <v>18035</v>
+        <v>18036</v>
       </c>
       <c r="Q25">
-        <v>5091</v>
+        <v>5090</v>
       </c>
       <c r="R25">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="S25">
-        <v>0.7798581682954251</v>
+        <v>0.7799014096687711</v>
       </c>
       <c r="T25">
-        <v>0.0011771630370806</v>
+        <v>0.001373356876594</v>
       </c>
       <c r="U25">
-        <v>0.9998891168154348</v>
+        <v>0.9999445584077176</v>
       </c>
       <c r="V25">
-        <v>10.61624484990876</v>
+        <v>24.77123798312045</v>
       </c>
       <c r="W25">
-        <v>0.9989336019018672</v>
+        <v>0.9986820116443154</v>
       </c>
       <c r="X25">
-        <v>0.3589167857050852</v>
+        <v>0.4681786160314102</v>
       </c>
       <c r="Y25">
-        <v>0.941436390491302</v>
+        <v>0.9823511482631704</v>
       </c>
       <c r="Z25">
-        <v>0.7744714529157291</v>
+        <v>0.774515063483727</v>
       </c>
       <c r="AA25">
-        <v>0.7851519149313364</v>
+        <v>0.7851947727452679</v>
       </c>
       <c r="AB25">
-        <v>0.0005395173397244</v>
+        <v>0.0006653106255891</v>
       </c>
       <c r="AC25">
-        <v>0.0025664953358395</v>
+        <v>0.0028327940803876</v>
       </c>
       <c r="AD25">
-        <v>0.9995957274106018</v>
+        <v>0.9996859665607934</v>
       </c>
       <c r="AE25">
-        <v>0.999969593629191</v>
+        <v>0.9999902140499018</v>
       </c>
       <c r="AF25">
-        <v>2.143199482230734</v>
+        <v>3.048088423754173</v>
       </c>
       <c r="AG25">
-        <v>52.58710430253862</v>
+        <v>201.3111648712056</v>
       </c>
       <c r="AH25">
-        <v>0.9979801136845584</v>
+        <v>0.99765997031471</v>
       </c>
       <c r="AI25">
-        <v>0.9998880010990324</v>
+        <v>0.9997050999924544</v>
       </c>
       <c r="AJ25">
         <v>1</v>
@@ -16052,22 +16361,22 @@
         <v>79</v>
       </c>
       <c r="E26">
-        <v>1.101399610516287</v>
+        <v>1.101842801753207</v>
       </c>
       <c r="F26">
-        <v>1.057190049885674</v>
+        <v>1.057508019758094</v>
       </c>
       <c r="G26">
-        <v>1.14948024976713</v>
+        <v>1.156735520631769</v>
       </c>
       <c r="H26">
-        <v>4.263896893209232E-06</v>
+        <v>6.473174419819285E-06</v>
       </c>
       <c r="I26">
-        <v>6.076053072823155E-05</v>
+        <v>0.0001736705332146</v>
       </c>
       <c r="J26">
-        <v>0.0019443369833034</v>
+        <v>0.0071204918618012</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -16150,109 +16459,109 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27">
-        <v>1.094864815136445</v>
+        <v>1.098692338162176</v>
       </c>
       <c r="F27">
-        <v>1.07068202831742</v>
+        <v>1.055562406087429</v>
       </c>
       <c r="G27">
-        <v>1.107634624013793</v>
+        <v>1.142094064412004</v>
       </c>
       <c r="H27">
-        <v>4.734838022235927E-11</v>
+        <v>1.12746233874049E-05</v>
       </c>
       <c r="I27">
-        <v>1.270050669493872E-09</v>
+        <v>0.0002884205982824</v>
       </c>
       <c r="J27">
-        <v>2.159086138139582E-08</v>
+        <v>0.0124020857261453</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M27">
         <v>23134</v>
       </c>
       <c r="N27">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="O27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P27">
-        <v>18036</v>
+        <v>18035</v>
       </c>
       <c r="Q27">
-        <v>5090</v>
+        <v>5085</v>
       </c>
       <c r="R27">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="S27">
-        <v>0.7799014096687711</v>
+        <v>0.780060553633218</v>
       </c>
       <c r="T27">
-        <v>0.001373356876594</v>
+        <v>0.0023543260741612</v>
       </c>
       <c r="U27">
-        <v>0.9999445584077176</v>
+        <v>0.9998891168154348</v>
       </c>
       <c r="V27">
-        <v>24.77123798312045</v>
+        <v>21.23248969981753</v>
       </c>
       <c r="W27">
-        <v>0.9986820116443154</v>
+        <v>0.9977563083227254</v>
       </c>
       <c r="X27">
-        <v>0.4681786160314102</v>
+        <v>0.5736609912378434</v>
       </c>
       <c r="Y27">
-        <v>0.9823511482631704</v>
+        <v>0.9639702396554424</v>
       </c>
       <c r="Z27">
-        <v>0.774515063483727</v>
+        <v>0.7746748622037746</v>
       </c>
       <c r="AA27">
-        <v>0.7851947727452679</v>
+        <v>0.7853531849437679</v>
       </c>
       <c r="AB27">
-        <v>0.0006653106255891</v>
+        <v>0.0013471436395605</v>
       </c>
       <c r="AC27">
-        <v>0.0028327940803876</v>
+        <v>0.0041114212184799</v>
       </c>
       <c r="AD27">
-        <v>0.9996859665607934</v>
+        <v>0.9995957274106018</v>
       </c>
       <c r="AE27">
-        <v>0.9999902140499018</v>
+        <v>0.999969593629191</v>
       </c>
       <c r="AF27">
-        <v>3.048088423754173</v>
+        <v>4.753256295429408</v>
       </c>
       <c r="AG27">
-        <v>201.3111648712056</v>
+        <v>94.84416383908255</v>
       </c>
       <c r="AH27">
-        <v>0.99765997031471</v>
+        <v>0.9964176917177252</v>
       </c>
       <c r="AI27">
-        <v>0.9997050999924544</v>
+        <v>0.9990967232643369</v>
       </c>
       <c r="AJ27">
         <v>1</v>
@@ -16260,109 +16569,109 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E28">
-        <v>1.094782484005221</v>
+        <v>1.095677051976416</v>
       </c>
       <c r="F28">
-        <v>1.054517783349528</v>
+        <v>1.041299508293868</v>
       </c>
       <c r="G28">
-        <v>1.1388061155385</v>
+        <v>1.14963039231143</v>
       </c>
       <c r="H28">
-        <v>1.034286765653336E-05</v>
+        <v>0.000155096254984</v>
       </c>
       <c r="I28">
-        <v>0.0001347527900394</v>
+        <v>0.0026657168825375</v>
       </c>
       <c r="J28">
-        <v>0.0047163476513792</v>
+        <v>0.1706058804824055</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M28">
         <v>23134</v>
       </c>
       <c r="N28">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="O28">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P28">
-        <v>18035</v>
+        <v>18028</v>
       </c>
       <c r="Q28">
-        <v>5085</v>
+        <v>5078</v>
       </c>
       <c r="R28">
-        <v>0.8571428571428571</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="S28">
-        <v>0.780060553633218</v>
+        <v>0.7802302432268675</v>
       </c>
       <c r="T28">
-        <v>0.0023543260741612</v>
+        <v>0.0037276829507553</v>
       </c>
       <c r="U28">
-        <v>0.9998891168154348</v>
+        <v>0.9995010256694572</v>
       </c>
       <c r="V28">
-        <v>21.23248969981753</v>
+        <v>7.47069082030783</v>
       </c>
       <c r="W28">
-        <v>0.9977563083227254</v>
+        <v>0.9967696795327948</v>
       </c>
       <c r="X28">
-        <v>0.5736609912378434</v>
+        <v>0.4851010964027256</v>
       </c>
       <c r="Y28">
-        <v>0.9639702396554424</v>
+        <v>0.8254967652290206</v>
       </c>
       <c r="Z28">
-        <v>0.7746748622037746</v>
+        <v>0.7748443577871422</v>
       </c>
       <c r="AA28">
-        <v>0.7853531849437679</v>
+        <v>0.7855229557461512</v>
       </c>
       <c r="AB28">
-        <v>0.0013471436395605</v>
+        <v>0.0023875422889791</v>
       </c>
       <c r="AC28">
-        <v>0.0041114212184799</v>
+        <v>0.0058156667819506</v>
       </c>
       <c r="AD28">
-        <v>0.9995957274106018</v>
+        <v>0.999051834557194</v>
       </c>
       <c r="AE28">
-        <v>0.999969593629191</v>
+        <v>0.9997374694862832</v>
       </c>
       <c r="AF28">
-        <v>4.753256295429408</v>
+        <v>3.381953965933074</v>
       </c>
       <c r="AG28">
-        <v>94.84416383908255</v>
+        <v>16.50265553429361</v>
       </c>
       <c r="AH28">
-        <v>0.9964176917177252</v>
+        <v>0.9950659367368844</v>
       </c>
       <c r="AI28">
-        <v>0.9990967232643369</v>
+        <v>0.9984763394615382</v>
       </c>
       <c r="AJ28">
         <v>1</v>
@@ -16385,19 +16694,19 @@
         <v>1.09399897554992</v>
       </c>
       <c r="F29">
-        <v>1.046201490328193</v>
+        <v>1.03482760160751</v>
       </c>
       <c r="G29">
-        <v>1.139277253309117</v>
+        <v>1.140686647104558</v>
       </c>
       <c r="H29">
-        <v>0.0001429574238182</v>
+        <v>0.0004323613998068</v>
       </c>
       <c r="I29">
-        <v>0.0021840717527794</v>
+        <v>0.0055302039510178</v>
       </c>
       <c r="J29">
-        <v>0.1572531662001204</v>
+        <v>0.475597539787532</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -16492,22 +16801,22 @@
         <v>79</v>
       </c>
       <c r="E30">
-        <v>1.093478763111872</v>
+        <v>1.090882913935091</v>
       </c>
       <c r="F30">
-        <v>1.054173269068689</v>
+        <v>1.045613710450939</v>
       </c>
       <c r="G30">
-        <v>1.146076704224168</v>
+        <v>1.149053452226733</v>
       </c>
       <c r="H30">
-        <v>1.025301725471704E-05</v>
+        <v>0.0002290780631141</v>
       </c>
       <c r="I30">
-        <v>0.0001375110549456</v>
+        <v>0.0035997981346505</v>
       </c>
       <c r="J30">
-        <v>0.0046753758681509</v>
+        <v>0.2519858694255392</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -16590,109 +16899,109 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
         <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
         <v>79</v>
       </c>
       <c r="E31">
-        <v>1.090599788107703</v>
+        <v>1.085721630125664</v>
       </c>
       <c r="F31">
-        <v>1.039756447594392</v>
+        <v>1.000065061809335</v>
       </c>
       <c r="G31">
-        <v>1.14139921385843</v>
+        <v>1.109347880935015</v>
       </c>
       <c r="H31">
-        <v>0.0001398627042935</v>
+        <v>0.0004367374636242</v>
       </c>
       <c r="I31">
-        <v>0.0012755478631574</v>
+        <v>0.0065809754792687</v>
       </c>
       <c r="J31">
-        <v>0.06377739315787399</v>
+        <v>0.4804112099866213</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="M31">
         <v>23134</v>
       </c>
       <c r="N31">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="O31">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P31">
-        <v>18028</v>
+        <v>18035</v>
       </c>
       <c r="Q31">
-        <v>5078</v>
+        <v>5091</v>
       </c>
       <c r="R31">
-        <v>0.6785714285714286</v>
+        <v>0.75</v>
       </c>
       <c r="S31">
-        <v>0.7802302432268675</v>
+        <v>0.7798581682954251</v>
       </c>
       <c r="T31">
-        <v>0.0037276829507553</v>
+        <v>0.0011771630370806</v>
       </c>
       <c r="U31">
-        <v>0.9995010256694572</v>
+        <v>0.9998891168154348</v>
       </c>
       <c r="V31">
-        <v>7.47069082030783</v>
+        <v>10.61624484990876</v>
       </c>
       <c r="W31">
-        <v>0.9967696795327948</v>
+        <v>0.9989336019018672</v>
       </c>
       <c r="X31">
-        <v>0.4851010964027256</v>
+        <v>0.3589167857050852</v>
       </c>
       <c r="Y31">
-        <v>0.8254967652290206</v>
+        <v>0.941436390491302</v>
       </c>
       <c r="Z31">
-        <v>0.7748443577871422</v>
+        <v>0.7744714529157291</v>
       </c>
       <c r="AA31">
-        <v>0.7855229557461512</v>
+        <v>0.7851519149313364</v>
       </c>
       <c r="AB31">
-        <v>0.0023875422889791</v>
+        <v>0.0005395173397244</v>
       </c>
       <c r="AC31">
-        <v>0.0058156667819506</v>
+        <v>0.0025664953358395</v>
       </c>
       <c r="AD31">
-        <v>0.999051834557194</v>
+        <v>0.9995957274106018</v>
       </c>
       <c r="AE31">
-        <v>0.9997374694862832</v>
+        <v>0.999969593629191</v>
       </c>
       <c r="AF31">
-        <v>3.381953965933074</v>
+        <v>2.143199482230734</v>
       </c>
       <c r="AG31">
-        <v>16.50265553429361</v>
+        <v>52.58710430253862</v>
       </c>
       <c r="AH31">
-        <v>0.9950659367368844</v>
+        <v>0.9979801136845584</v>
       </c>
       <c r="AI31">
-        <v>0.9984763394615382</v>
+        <v>0.9998880010990324</v>
       </c>
       <c r="AJ31">
         <v>1</v>
@@ -16712,22 +17021,22 @@
         <v>79</v>
       </c>
       <c r="E32">
-        <v>1.08241425461755</v>
+        <v>1.084238431063547</v>
       </c>
       <c r="F32">
-        <v>1.000048694783381</v>
+        <v>1.000031930004108</v>
       </c>
       <c r="G32">
-        <v>1.094515660977501</v>
+        <v>1.097351633934626</v>
       </c>
       <c r="H32">
-        <v>3.06213604731813E-06</v>
+        <v>6.417915461721426E-06</v>
       </c>
       <c r="I32">
-        <v>4.504303347022797E-05</v>
+        <v>0.0001764926751973</v>
       </c>
       <c r="J32">
-        <v>0.001396334037577</v>
+        <v>0.0070597070078935</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -16822,22 +17131,22 @@
         <v>79</v>
       </c>
       <c r="E33">
-        <v>1.079455273592504</v>
+        <v>1.077376864478337</v>
       </c>
       <c r="F33">
-        <v>1.038374968920464</v>
+        <v>1.036583457567946</v>
       </c>
       <c r="G33">
-        <v>1.135218756198663</v>
+        <v>1.130186753116173</v>
       </c>
       <c r="H33">
-        <v>0.0006314448552483</v>
+        <v>0.0005742408394771</v>
       </c>
       <c r="I33">
-        <v>0.0051417652498791</v>
+        <v>0.008203440563959601</v>
       </c>
       <c r="J33">
-        <v>0.2879388539932339</v>
+        <v>0.6316649234248937</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -16932,22 +17241,22 @@
         <v>79</v>
       </c>
       <c r="E34">
-        <v>1.074612572601326</v>
+        <v>1.072306915850063</v>
       </c>
       <c r="F34">
-        <v>1.022608508841888</v>
+        <v>1.021335207986197</v>
       </c>
       <c r="G34">
-        <v>1.096577274014021</v>
+        <v>1.095967000792929</v>
       </c>
       <c r="H34">
-        <v>0.000315856449996</v>
+        <v>0.0002924215463381</v>
       </c>
       <c r="I34">
-        <v>0.0027175573810976</v>
+        <v>0.0045304746615763</v>
       </c>
       <c r="J34">
-        <v>0.144030541198177</v>
+        <v>0.321663700971918</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -17042,19 +17351,19 @@
         <v>1.047693082331403</v>
       </c>
       <c r="F35">
-        <v>1.029461850248626</v>
+        <v>1.029763628991724</v>
       </c>
       <c r="G35">
-        <v>1.058421776140812</v>
+        <v>1.058400157996501</v>
       </c>
       <c r="H35">
-        <v>8.55723233432718E-10</v>
+        <v>8.901336333639333E-10</v>
       </c>
       <c r="I35">
-        <v>4.706477783879949E-08</v>
+        <v>4.895734983501634E-08</v>
       </c>
       <c r="J35">
-        <v>9.412955567759898E-07</v>
+        <v>9.791469967003269E-07</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -17149,19 +17458,19 @@
         <v>1.046234484837704</v>
       </c>
       <c r="F36">
-        <v>1.00001218711742</v>
+        <v>1.000013654932123</v>
       </c>
       <c r="G36">
-        <v>1.06059778468211</v>
+        <v>1.061029155123604</v>
       </c>
       <c r="H36">
-        <v>0.0006981177709976</v>
+        <v>0.0007819220866115</v>
       </c>
       <c r="I36">
-        <v>0.008347060305406301</v>
+        <v>0.0094518054425573</v>
       </c>
       <c r="J36">
-        <v>0.7679295480973829</v>
+        <v>0.8601142952727203</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -17241,46 +17550,43 @@
     </row>
     <row r="37" spans="1:36">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E37">
-        <v>1.040320605288846</v>
+        <v>1.044508996521219</v>
       </c>
       <c r="F37">
-        <v>1.000045445657604</v>
+        <v>1.027621588738022</v>
       </c>
       <c r="G37">
-        <v>1.052837077128465</v>
+        <v>1.055847231282117</v>
       </c>
       <c r="H37">
-        <v>0.0008400079073604</v>
+        <v>6.10351677130168E-10</v>
       </c>
       <c r="I37">
-        <v>0.0067200632588839</v>
+        <v>3.197080213538976E-08</v>
       </c>
       <c r="J37">
-        <v>0.3830436057563871</v>
+        <v>6.713868448431849E-07</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M37">
         <v>23134</v>
       </c>
       <c r="N37">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -17289,16 +17595,16 @@
         <v>18037</v>
       </c>
       <c r="Q37">
-        <v>5091</v>
+        <v>5085</v>
       </c>
       <c r="R37">
         <v>1</v>
       </c>
       <c r="S37">
-        <v>0.7798772051193359</v>
+        <v>0.7800795778911859</v>
       </c>
       <c r="T37">
-        <v>0.0011771630370806</v>
+        <v>0.0023543260741612</v>
       </c>
       <c r="U37">
         <v>1</v>
@@ -17307,25 +17613,25 @@
         <v>80</v>
       </c>
       <c r="W37">
-        <v>0.9988228369629194</v>
+        <v>0.9976456739258388</v>
       </c>
       <c r="X37">
-        <v>0.5005264873047524</v>
+        <v>0.716536605412092</v>
       </c>
       <c r="Y37">
         <v>1</v>
       </c>
       <c r="Z37">
-        <v>0.7744908871853922</v>
+        <v>0.7746942840140097</v>
       </c>
       <c r="AA37">
-        <v>0.7851705560250215</v>
+        <v>0.7853718133775186</v>
       </c>
       <c r="AB37">
-        <v>0.0005395173397244</v>
+        <v>0.0013471436395605</v>
       </c>
       <c r="AC37">
-        <v>0.0025664953358395</v>
+        <v>0.0041114212184799</v>
       </c>
       <c r="AD37">
         <v>0.9997870401815973</v>
@@ -17337,10 +17643,10 @@
         <v>80</v>
       </c>
       <c r="AH37">
-        <v>0.9978818764691668</v>
+        <v>0.9963159992773332</v>
       </c>
       <c r="AI37">
-        <v>0.9997646847427044</v>
+        <v>0.9989771231465402</v>
       </c>
       <c r="AJ37">
         <v>1</v>
@@ -17363,19 +17669,19 @@
         <v>1.0370317534056</v>
       </c>
       <c r="F38">
-        <v>1.000012469580783</v>
+        <v>1.000013980089803</v>
       </c>
       <c r="G38">
-        <v>1.047865734067331</v>
+        <v>1.047812695406552</v>
       </c>
       <c r="H38">
-        <v>0.0003730708051163</v>
+        <v>0.000114111406899</v>
       </c>
       <c r="I38">
-        <v>0.0049443118750354</v>
+        <v>0.0017931792512713</v>
       </c>
       <c r="J38">
-        <v>0.4103778856279387</v>
+        <v>0.1255225475889975</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -17467,19 +17773,19 @@
         <v>1.036040451551144</v>
       </c>
       <c r="F39">
-        <v>1.010779088173479</v>
+        <v>1.009315758072879</v>
       </c>
       <c r="G39">
-        <v>1.047911972583884</v>
+        <v>1.049056291270505</v>
       </c>
       <c r="H39">
-        <v>4.475115300874771E-05</v>
+        <v>8.292662611807146E-05</v>
       </c>
       <c r="I39">
-        <v>0.0007813693382479</v>
+        <v>0.0013614819213414</v>
       </c>
       <c r="J39">
-        <v>0.0492262683096224</v>
+        <v>0.0912192887298786</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -17571,19 +17877,19 @@
         <v>1.035063865136</v>
       </c>
       <c r="F40">
-        <v>1.000012591713908</v>
+        <v>1.000009966674684</v>
       </c>
       <c r="G40">
-        <v>1.044765360903958</v>
+        <v>1.045591821228743</v>
       </c>
       <c r="H40">
-        <v>0.0001423143908738</v>
+        <v>0.0003430251020409</v>
       </c>
       <c r="I40">
-        <v>0.0022048708445243</v>
+        <v>0.0046015562468908</v>
       </c>
       <c r="J40">
-        <v>0.1565458299612277</v>
+        <v>0.3773276122450524</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -17663,46 +17969,43 @@
     </row>
     <row r="41" spans="1:36">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
         <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E41">
-        <v>1.032848783352244</v>
+        <v>1.034941950038348</v>
       </c>
       <c r="F41">
-        <v>1.000044090021232</v>
+        <v>1.010425104495988</v>
       </c>
       <c r="G41">
-        <v>1.042953234704619</v>
+        <v>1.048908615597978</v>
       </c>
       <c r="H41">
-        <v>0.0001321787052164</v>
+        <v>0.0001496188907799</v>
       </c>
       <c r="I41">
-        <v>0.0012824146718873</v>
+        <v>0.0026545287073868</v>
       </c>
       <c r="J41">
-        <v>0.060273489578707</v>
+        <v>0.1645807798579869</v>
       </c>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="L41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M41">
         <v>23134</v>
       </c>
       <c r="N41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -17711,16 +18014,16 @@
         <v>18037</v>
       </c>
       <c r="Q41">
-        <v>5091</v>
+        <v>5089</v>
       </c>
       <c r="R41">
         <v>1</v>
       </c>
       <c r="S41">
-        <v>0.7798772051193359</v>
+        <v>0.7799446510421171</v>
       </c>
       <c r="T41">
-        <v>0.0011771630370806</v>
+        <v>0.0015695507161075</v>
       </c>
       <c r="U41">
         <v>1</v>
@@ -17729,25 +18032,25 @@
         <v>80</v>
       </c>
       <c r="W41">
-        <v>0.9988228369629194</v>
+        <v>0.9984304492838924</v>
       </c>
       <c r="X41">
-        <v>0.5005264873047524</v>
+        <v>0.6007063523927745</v>
       </c>
       <c r="Y41">
         <v>1</v>
       </c>
       <c r="Z41">
-        <v>0.7744908871853922</v>
+        <v>0.7745586741364118</v>
       </c>
       <c r="AA41">
-        <v>0.7851705560250215</v>
+        <v>0.7852376304745124</v>
       </c>
       <c r="AB41">
-        <v>0.0005395173397244</v>
+        <v>0.0007954139099644</v>
       </c>
       <c r="AC41">
-        <v>0.0025664953358395</v>
+        <v>0.003094782826425</v>
       </c>
       <c r="AD41">
         <v>0.9997870401815973</v>
@@ -17759,12 +18062,223 @@
         <v>80</v>
       </c>
       <c r="AH41">
+        <v>0.9973442144334972</v>
+      </c>
+      <c r="AI41">
+        <v>0.9995178671823598</v>
+      </c>
+      <c r="AJ41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42">
+        <v>1.033772743611293</v>
+      </c>
+      <c r="F42">
+        <v>1.000033775528301</v>
+      </c>
+      <c r="G42">
+        <v>1.043909226292112</v>
+      </c>
+      <c r="H42">
+        <v>0.0001143367099816</v>
+      </c>
+      <c r="I42">
+        <v>0.0022867341996323</v>
+      </c>
+      <c r="J42">
+        <v>0.1257703809797786</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>6</v>
+      </c>
+      <c r="M42">
+        <v>23134</v>
+      </c>
+      <c r="N42">
+        <v>6</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>18037</v>
+      </c>
+      <c r="Q42">
+        <v>5091</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>0.7798772051193359</v>
+      </c>
+      <c r="T42">
+        <v>0.0011771630370806</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42" t="s">
+        <v>80</v>
+      </c>
+      <c r="W42">
+        <v>0.9988228369629194</v>
+      </c>
+      <c r="X42">
+        <v>0.5005264873047524</v>
+      </c>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+      <c r="Z42">
+        <v>0.7744908871853922</v>
+      </c>
+      <c r="AA42">
+        <v>0.7851705560250215</v>
+      </c>
+      <c r="AB42">
+        <v>0.0005395173397244</v>
+      </c>
+      <c r="AC42">
+        <v>0.0025664953358395</v>
+      </c>
+      <c r="AD42">
+        <v>0.9997870401815973</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH42">
         <v>0.9978818764691668</v>
       </c>
-      <c r="AI41">
+      <c r="AI42">
         <v>0.9997646847427044</v>
       </c>
-      <c r="AJ41">
+      <c r="AJ42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43">
+        <v>1.032548258132346</v>
+      </c>
+      <c r="F43">
+        <v>1.000036561572574</v>
+      </c>
+      <c r="G43">
+        <v>1.042438949566032</v>
+      </c>
+      <c r="H43">
+        <v>0.0001268011098484</v>
+      </c>
+      <c r="I43">
+        <v>0.0024470389619874</v>
+      </c>
+      <c r="J43">
+        <v>0.1394812208332859</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>6</v>
+      </c>
+      <c r="M43">
+        <v>23134</v>
+      </c>
+      <c r="N43">
+        <v>6</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>18037</v>
+      </c>
+      <c r="Q43">
+        <v>5091</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>0.7798772051193359</v>
+      </c>
+      <c r="T43">
+        <v>0.0011771630370806</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43" t="s">
+        <v>80</v>
+      </c>
+      <c r="W43">
+        <v>0.9988228369629194</v>
+      </c>
+      <c r="X43">
+        <v>0.5005264873047524</v>
+      </c>
+      <c r="Y43">
+        <v>1</v>
+      </c>
+      <c r="Z43">
+        <v>0.7744908871853922</v>
+      </c>
+      <c r="AA43">
+        <v>0.7851705560250215</v>
+      </c>
+      <c r="AB43">
+        <v>0.0005395173397244</v>
+      </c>
+      <c r="AC43">
+        <v>0.0025664953358395</v>
+      </c>
+      <c r="AD43">
+        <v>0.9997870401815973</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH43">
+        <v>0.9978818764691668</v>
+      </c>
+      <c r="AI43">
+        <v>0.9997646847427044</v>
+      </c>
+      <c r="AJ43">
         <v>1</v>
       </c>
     </row>
